--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charz\Documents\Unity\GTRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8140093A-B6C3-44EF-A391-8E51A6D85621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B38AC0-09D7-4F33-8908-AEBFF3D9A2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bandwidth Tests" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Time (s)</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>fps</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Bundled Optimised</t>
   </si>
 </sst>
 </file>
@@ -541,8 +547,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2629,6 +2638,357 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B447-4D8F-833C-B944BC5FF362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bandwidth Tests'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Bytes read by</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bundled Optimised</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bandwidth Tests'!$E$3:$E$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="106"/>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2588</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3079</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3211</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4260</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4363</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4731</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5172</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5139</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5367</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5892</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5823</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B2C7-40D3-BA92-2C04CB1C27A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3504,16 +3864,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3838,23 +4198,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -3864,8 +4231,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-5</v>
       </c>
@@ -3873,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4</v>
       </c>
@@ -3881,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-3</v>
       </c>
@@ -3889,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-2</v>
       </c>
@@ -3897,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1</v>
       </c>
@@ -3907,8 +4277,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3918,8 +4291,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3929,8 +4305,11 @@
       <c r="D9">
         <v>774</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3940,8 +4319,11 @@
       <c r="D10">
         <v>277</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3951,8 +4333,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -3962,8 +4347,11 @@
       <c r="D12">
         <v>406</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -3973,8 +4361,11 @@
       <c r="D13">
         <v>986</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3984,8 +4375,11 @@
       <c r="D14">
         <v>1595</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -3995,8 +4389,11 @@
       <c r="D15">
         <v>2175</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -4006,8 +4403,11 @@
       <c r="D16">
         <v>2755</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -4017,8 +4417,11 @@
       <c r="D17">
         <v>2842</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -4028,8 +4431,11 @@
       <c r="D18">
         <v>3037</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -4039,8 +4445,11 @@
       <c r="D19">
         <v>3460</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -4050,8 +4459,11 @@
       <c r="D20">
         <v>3780</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -4061,8 +4473,11 @@
       <c r="D21">
         <v>4100</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -4072,8 +4487,11 @@
       <c r="D22">
         <v>4330</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -4083,8 +4501,11 @@
       <c r="D23">
         <v>4365</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -4094,8 +4515,11 @@
       <c r="D24">
         <v>4680</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
@@ -4105,8 +4529,11 @@
       <c r="D25">
         <v>4920</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -4116,8 +4543,11 @@
       <c r="D26">
         <v>5160</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -4127,8 +4557,11 @@
       <c r="D27">
         <v>5400</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -4138,8 +4571,11 @@
       <c r="D28">
         <v>5640</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -4149,8 +4585,11 @@
       <c r="D29">
         <v>5415</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
@@ -4160,8 +4599,11 @@
       <c r="D30">
         <v>5700</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
@@ -4171,8 +4613,11 @@
       <c r="D31">
         <v>5700</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
@@ -4182,8 +4627,11 @@
       <c r="D32">
         <v>5700</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
@@ -4193,8 +4641,11 @@
       <c r="D33">
         <v>5700</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -4204,8 +4655,11 @@
       <c r="D34">
         <v>5700</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -4215,8 +4669,11 @@
       <c r="D35">
         <v>5415</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -4226,8 +4683,11 @@
       <c r="D36">
         <v>5700</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
@@ -4237,8 +4697,11 @@
       <c r="D37">
         <v>5700</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -4248,8 +4711,11 @@
       <c r="D38">
         <v>5700</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -4259,8 +4725,11 @@
       <c r="D39">
         <v>5700</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -4270,8 +4739,11 @@
       <c r="D40">
         <v>5700</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
@@ -4281,8 +4753,11 @@
       <c r="D41">
         <v>5529</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
@@ -4292,8 +4767,11 @@
       <c r="D42">
         <v>5586</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -4303,8 +4781,11 @@
       <c r="D43">
         <v>5700</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -4314,8 +4795,11 @@
       <c r="D44">
         <v>5700</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
@@ -4325,8 +4809,11 @@
       <c r="D45">
         <v>5700</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>38</v>
       </c>
@@ -4336,8 +4823,11 @@
       <c r="D46">
         <v>5643</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>39</v>
       </c>
@@ -4347,8 +4837,11 @@
       <c r="D47">
         <v>5472</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
@@ -4358,8 +4851,11 @@
       <c r="D48">
         <v>5700</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41</v>
       </c>
@@ -4369,8 +4865,11 @@
       <c r="D49">
         <v>5700</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>42</v>
       </c>
@@ -4380,8 +4879,11 @@
       <c r="D50">
         <v>5700</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43</v>
       </c>
@@ -4391,8 +4893,11 @@
       <c r="D51">
         <v>5700</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>44</v>
       </c>
@@ -4402,8 +4907,11 @@
       <c r="D52">
         <v>5472</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>45</v>
       </c>
@@ -4413,8 +4921,11 @@
       <c r="D53">
         <v>5643</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>46</v>
       </c>
@@ -4424,8 +4935,11 @@
       <c r="D54">
         <v>5700</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>47</v>
       </c>
@@ -4435,8 +4949,11 @@
       <c r="D55">
         <v>5700</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>48</v>
       </c>
@@ -4446,8 +4963,11 @@
       <c r="D56">
         <v>5700</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>49</v>
       </c>
@@ -4457,8 +4977,11 @@
       <c r="D57">
         <v>5700</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50</v>
       </c>
@@ -4468,8 +4991,11 @@
       <c r="D58">
         <v>5529</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>51</v>
       </c>
@@ -4479,8 +5005,11 @@
       <c r="D59">
         <v>5586</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>52</v>
       </c>
@@ -4490,8 +5019,11 @@
       <c r="D60">
         <v>5700</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>53</v>
       </c>
@@ -4501,8 +5033,11 @@
       <c r="D61">
         <v>5700</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>54</v>
       </c>
@@ -4512,8 +5047,11 @@
       <c r="D62">
         <v>5700</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>55</v>
       </c>
@@ -4523,8 +5061,11 @@
       <c r="D63">
         <v>5529</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>56</v>
       </c>
@@ -4534,8 +5075,11 @@
       <c r="D64">
         <v>5586</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>57</v>
       </c>
@@ -4545,8 +5089,11 @@
       <c r="D65">
         <v>5700</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>58</v>
       </c>
@@ -4556,8 +5103,11 @@
       <c r="D66">
         <v>5700</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>59</v>
       </c>
@@ -4567,8 +5117,11 @@
       <c r="D67">
         <v>5700</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>60</v>
       </c>
@@ -4578,8 +5131,11 @@
       <c r="D68">
         <v>5700</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>61</v>
       </c>
@@ -4589,8 +5145,11 @@
       <c r="D69">
         <v>5586</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>62</v>
       </c>
@@ -4600,8 +5159,11 @@
       <c r="D70">
         <v>5529</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>63</v>
       </c>
@@ -4611,8 +5173,11 @@
       <c r="D71">
         <v>5700</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>64</v>
       </c>
@@ -4622,8 +5187,11 @@
       <c r="D72">
         <v>5700</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>65</v>
       </c>
@@ -4633,8 +5201,11 @@
       <c r="D73">
         <v>5700</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>66</v>
       </c>
@@ -4644,8 +5215,11 @@
       <c r="D74">
         <v>5700</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>67</v>
       </c>
@@ -4655,8 +5229,11 @@
       <c r="D75">
         <v>5529</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>68</v>
       </c>
@@ -4666,8 +5243,11 @@
       <c r="D76">
         <v>5586</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>69</v>
       </c>
@@ -4677,8 +5257,11 @@
       <c r="D77">
         <v>5700</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>70</v>
       </c>
@@ -4688,8 +5271,11 @@
       <c r="D78">
         <v>5700</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>71</v>
       </c>
@@ -4699,8 +5285,11 @@
       <c r="D79">
         <v>5700</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>72</v>
       </c>
@@ -4710,8 +5299,11 @@
       <c r="D80">
         <v>5700</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>73</v>
       </c>
@@ -4721,8 +5313,11 @@
       <c r="D81">
         <v>5472</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>74</v>
       </c>
@@ -4732,8 +5327,11 @@
       <c r="D82">
         <v>5643</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>75</v>
       </c>
@@ -4743,8 +5341,11 @@
       <c r="D83">
         <v>5700</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>76</v>
       </c>
@@ -4754,8 +5355,11 @@
       <c r="D84">
         <v>5700</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>77</v>
       </c>
@@ -4765,8 +5369,11 @@
       <c r="D85">
         <v>5700</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>78</v>
       </c>
@@ -4776,8 +5383,11 @@
       <c r="D86">
         <v>5700</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>79</v>
       </c>
@@ -4787,8 +5397,11 @@
       <c r="D87">
         <v>5643</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>80</v>
       </c>
@@ -4798,8 +5411,11 @@
       <c r="D88">
         <v>5529</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>81</v>
       </c>
@@ -4809,8 +5425,11 @@
       <c r="D89">
         <v>5643</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>82</v>
       </c>
@@ -4820,8 +5439,11 @@
       <c r="D90">
         <v>5700</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>83</v>
       </c>
@@ -4831,8 +5453,11 @@
       <c r="D91">
         <v>5700</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>84</v>
       </c>
@@ -4842,8 +5467,11 @@
       <c r="D92">
         <v>5700</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>85</v>
       </c>
@@ -4853,8 +5481,11 @@
       <c r="D93">
         <v>5700</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>86</v>
       </c>
@@ -4864,8 +5495,11 @@
       <c r="D94">
         <v>5643</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>87</v>
       </c>
@@ -4875,8 +5509,11 @@
       <c r="D95">
         <v>5529</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>88</v>
       </c>
@@ -4886,8 +5523,11 @@
       <c r="D96">
         <v>5643</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>89</v>
       </c>
@@ -4897,8 +5537,11 @@
       <c r="D97">
         <v>5700</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>90</v>
       </c>
@@ -4908,8 +5551,11 @@
       <c r="D98">
         <v>5700</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>91</v>
       </c>
@@ -4919,8 +5565,11 @@
       <c r="D99">
         <v>5700</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>92</v>
       </c>
@@ -4930,8 +5579,11 @@
       <c r="D100">
         <v>5586</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>93</v>
       </c>
@@ -4941,8 +5593,11 @@
       <c r="D101">
         <v>5529</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>94</v>
       </c>
@@ -4952,8 +5607,11 @@
       <c r="D102">
         <v>5700</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>95</v>
       </c>
@@ -4963,8 +5621,11 @@
       <c r="D103">
         <v>5700</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>96</v>
       </c>
@@ -4974,8 +5635,11 @@
       <c r="D104">
         <v>5700</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>97</v>
       </c>
@@ -4985,8 +5649,11 @@
       <c r="D105">
         <v>5700</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>98</v>
       </c>
@@ -4996,8 +5663,11 @@
       <c r="D106">
         <v>5700</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>99</v>
       </c>
@@ -5007,8 +5677,11 @@
       <c r="D107">
         <v>5586</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>100</v>
       </c>
@@ -5018,8 +5691,11 @@
       <c r="D108">
         <v>5586</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>101</v>
       </c>
@@ -5029,8 +5705,11 @@
       <c r="D109">
         <v>5643</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>102</v>
       </c>
@@ -5040,8 +5719,11 @@
       <c r="D110">
         <v>5700</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>103</v>
       </c>
@@ -5052,7 +5734,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>104</v>
       </c>
@@ -5364,6 +6046,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5371,18 +6056,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2434C9-9FEE-4B74-A6E8-22FF2ED6C4F5}">
-  <dimension ref="A2:D149"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
@@ -5428,11 +6124,31 @@
       <c r="A9">
         <v>-4</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>281</v>
+      </c>
+      <c r="D9">
+        <f>C9-C8</f>
+        <v>281</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-3</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>414</v>
+      </c>
+      <c r="D10">
+        <f>C10-C9</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -5442,11 +6158,11 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>131</v>
+        <v>469</v>
       </c>
       <c r="D11">
         <f>C11-C10</f>
-        <v>131</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5457,11 +6173,11 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>392</v>
+        <v>575</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D75" si="0">C12-C11</f>
-        <v>261</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5472,11 +6188,11 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>684</v>
+        <v>839</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5484,14 +6200,14 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>391</v>
+        <v>308</v>
       </c>
       <c r="C14">
-        <v>967</v>
+        <v>1121</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5499,10 +6215,10 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C15">
-        <v>1259</v>
+        <v>1413</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -5514,14 +6230,14 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="C16">
-        <v>1552</v>
+        <v>1705</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5529,14 +6245,14 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1268</v>
       </c>
       <c r="C17">
-        <v>1845</v>
+        <v>1997</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5544,14 +6260,14 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1825</v>
       </c>
       <c r="C18">
-        <v>2136</v>
+        <v>2290</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5559,14 +6275,14 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2588</v>
       </c>
       <c r="C19">
-        <v>2430</v>
+        <v>2582</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5574,14 +6290,14 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>3079</v>
       </c>
       <c r="C20">
-        <v>2724</v>
+        <v>2874</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5589,10 +6305,10 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3706</v>
       </c>
       <c r="C21">
-        <v>3016</v>
+        <v>3166</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -5604,14 +6320,14 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4711</v>
       </c>
       <c r="C22">
-        <v>3309</v>
+        <v>3458</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5619,10 +6335,10 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>5440</v>
       </c>
       <c r="C23">
-        <v>3602</v>
+        <v>3751</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -5634,14 +6350,14 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>132</v>
+        <v>6687</v>
       </c>
       <c r="C24">
-        <v>3894</v>
+        <v>4045</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,14 +6365,14 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>132</v>
+        <v>7700</v>
       </c>
       <c r="C25">
-        <v>4187</v>
+        <v>4337</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5664,14 +6380,14 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>132</v>
+        <v>8233</v>
       </c>
       <c r="C26">
-        <v>4481</v>
+        <v>4630</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5679,14 +6395,14 @@
         <v>14</v>
       </c>
       <c r="B27">
-        <v>132</v>
+        <v>9660</v>
       </c>
       <c r="C27">
-        <v>4774</v>
+        <v>4922</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5694,14 +6410,14 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>132</v>
+        <v>10239</v>
       </c>
       <c r="C28">
-        <v>5067</v>
+        <v>5214</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,14 +6425,14 @@
         <v>16</v>
       </c>
       <c r="B29">
-        <v>132</v>
+        <v>11386</v>
       </c>
       <c r="C29">
-        <v>5362</v>
+        <v>5506</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5724,10 +6440,10 @@
         <v>17</v>
       </c>
       <c r="B30">
-        <v>132</v>
+        <v>13224</v>
       </c>
       <c r="C30">
-        <v>5655</v>
+        <v>5799</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -5739,14 +6455,14 @@
         <v>18</v>
       </c>
       <c r="B31">
-        <v>132</v>
+        <v>14444</v>
       </c>
       <c r="C31">
-        <v>5949</v>
+        <v>6092</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5754,14 +6470,14 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>132</v>
+        <v>14924</v>
       </c>
       <c r="C32">
-        <v>6244</v>
+        <v>6386</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5769,14 +6485,14 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>132</v>
+        <v>16884</v>
       </c>
       <c r="C33">
-        <v>6536</v>
+        <v>6679</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5784,14 +6500,14 @@
         <v>21</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>17181</v>
       </c>
       <c r="C34">
-        <v>6829</v>
+        <v>6971</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5799,10 +6515,10 @@
         <v>22</v>
       </c>
       <c r="B35">
-        <v>132</v>
+        <v>19324</v>
       </c>
       <c r="C35">
-        <v>7122</v>
+        <v>7264</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
@@ -5814,14 +6530,14 @@
         <v>23</v>
       </c>
       <c r="B36">
-        <v>132</v>
+        <v>19511</v>
       </c>
       <c r="C36">
-        <v>7414</v>
+        <v>7557</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5829,14 +6545,14 @@
         <v>24</v>
       </c>
       <c r="B37">
-        <v>132</v>
+        <v>21764</v>
       </c>
       <c r="C37">
-        <v>7705</v>
+        <v>7850</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5844,14 +6560,14 @@
         <v>25</v>
       </c>
       <c r="B38">
-        <v>132</v>
+        <v>21845</v>
       </c>
       <c r="C38">
-        <v>7997</v>
+        <v>8141</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,10 +6575,10 @@
         <v>26</v>
       </c>
       <c r="B39">
-        <v>132</v>
+        <v>24204</v>
       </c>
       <c r="C39">
-        <v>8289</v>
+        <v>8433</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
@@ -5874,14 +6590,14 @@
         <v>27</v>
       </c>
       <c r="B40">
-        <v>132</v>
+        <v>24196</v>
       </c>
       <c r="C40">
-        <v>8581</v>
+        <v>8726</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5889,14 +6605,14 @@
         <v>28</v>
       </c>
       <c r="B41">
-        <v>132</v>
+        <v>26644</v>
       </c>
       <c r="C41">
-        <v>8873</v>
+        <v>9019</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5904,10 +6620,10 @@
         <v>29</v>
       </c>
       <c r="B42">
-        <v>132</v>
+        <v>26453</v>
       </c>
       <c r="C42">
-        <v>9165</v>
+        <v>9311</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
@@ -5919,14 +6635,14 @@
         <v>30</v>
       </c>
       <c r="B43">
-        <v>132</v>
+        <v>29084</v>
       </c>
       <c r="C43">
-        <v>9457</v>
+        <v>9605</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5934,10 +6650,10 @@
         <v>31</v>
       </c>
       <c r="B44">
-        <v>132</v>
+        <v>28771</v>
       </c>
       <c r="C44">
-        <v>9749</v>
+        <v>9897</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
@@ -5949,10 +6665,10 @@
         <v>32</v>
       </c>
       <c r="B45">
-        <v>132</v>
+        <v>31524</v>
       </c>
       <c r="C45">
-        <v>10041</v>
+        <v>10189</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
@@ -5964,10 +6680,10 @@
         <v>33</v>
       </c>
       <c r="B46">
-        <v>132</v>
+        <v>31101</v>
       </c>
       <c r="C46">
-        <v>10332</v>
+        <v>10480</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
@@ -5979,10 +6695,10 @@
         <v>34</v>
       </c>
       <c r="B47">
-        <v>132</v>
+        <v>33964</v>
       </c>
       <c r="C47">
-        <v>10625</v>
+        <v>10773</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
@@ -5994,14 +6710,14 @@
         <v>35</v>
       </c>
       <c r="B48">
-        <v>132</v>
+        <v>33407</v>
       </c>
       <c r="C48">
-        <v>10916</v>
+        <v>11066</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6009,10 +6725,10 @@
         <v>36</v>
       </c>
       <c r="B49">
-        <v>132</v>
+        <v>36404</v>
       </c>
       <c r="C49">
-        <v>11209</v>
+        <v>11359</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
@@ -6024,14 +6740,14 @@
         <v>37</v>
       </c>
       <c r="B50">
-        <v>132</v>
+        <v>35725</v>
       </c>
       <c r="C50">
-        <v>11500</v>
+        <v>11652</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6039,14 +6755,14 @@
         <v>38</v>
       </c>
       <c r="B51">
-        <v>132</v>
+        <v>38844</v>
       </c>
       <c r="C51">
-        <v>11792</v>
+        <v>11945</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6054,14 +6770,14 @@
         <v>39</v>
       </c>
       <c r="B52">
-        <v>132</v>
+        <v>38043</v>
       </c>
       <c r="C52">
-        <v>12083</v>
+        <v>12238</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,14 +6785,14 @@
         <v>40</v>
       </c>
       <c r="B53">
-        <v>136</v>
+        <v>41284</v>
       </c>
       <c r="C53">
-        <v>12375</v>
+        <v>12531</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6084,10 +6800,10 @@
         <v>41</v>
       </c>
       <c r="B54">
-        <v>132</v>
+        <v>40361</v>
       </c>
       <c r="C54">
-        <v>12667</v>
+        <v>12823</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
@@ -6099,14 +6815,14 @@
         <v>42</v>
       </c>
       <c r="B55">
-        <v>132</v>
+        <v>43724</v>
       </c>
       <c r="C55">
-        <v>12957</v>
+        <v>13114</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -6114,14 +6830,14 @@
         <v>43</v>
       </c>
       <c r="B56">
-        <v>132</v>
+        <v>42679</v>
       </c>
       <c r="C56">
-        <v>13248</v>
+        <v>13406</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -6129,14 +6845,14 @@
         <v>44</v>
       </c>
       <c r="B57">
-        <v>132</v>
+        <v>46164</v>
       </c>
       <c r="C57">
-        <v>13541</v>
+        <v>13698</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -6144,14 +6860,14 @@
         <v>45</v>
       </c>
       <c r="B58">
-        <v>132</v>
+        <v>45009</v>
       </c>
       <c r="C58">
-        <v>13832</v>
+        <v>13991</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,14 +6875,14 @@
         <v>46</v>
       </c>
       <c r="B59">
-        <v>132</v>
+        <v>48604</v>
       </c>
       <c r="C59">
-        <v>14124</v>
+        <v>14284</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -6174,14 +6890,14 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>132</v>
+        <v>47315</v>
       </c>
       <c r="C60">
-        <v>14415</v>
+        <v>14577</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6189,14 +6905,14 @@
         <v>48</v>
       </c>
       <c r="B61">
-        <v>132</v>
+        <v>51044</v>
       </c>
       <c r="C61">
-        <v>14707</v>
+        <v>14871</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6204,14 +6920,14 @@
         <v>49</v>
       </c>
       <c r="B62">
-        <v>161</v>
+        <v>49633</v>
       </c>
       <c r="C62">
-        <v>14998</v>
+        <v>15163</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6219,14 +6935,14 @@
         <v>50</v>
       </c>
       <c r="B63">
-        <v>103</v>
+        <v>53484</v>
       </c>
       <c r="C63">
-        <v>15289</v>
+        <v>15455</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6234,10 +6950,10 @@
         <v>51</v>
       </c>
       <c r="B64">
-        <v>132</v>
+        <v>51951</v>
       </c>
       <c r="C64">
-        <v>15580</v>
+        <v>15746</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
@@ -6249,14 +6965,14 @@
         <v>52</v>
       </c>
       <c r="B65">
-        <v>132</v>
+        <v>55924</v>
       </c>
       <c r="C65">
-        <v>15872</v>
+        <v>16037</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -6264,10 +6980,10 @@
         <v>53</v>
       </c>
       <c r="B66">
-        <v>132</v>
+        <v>54281</v>
       </c>
       <c r="C66">
-        <v>16163</v>
+        <v>16328</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
@@ -6279,10 +6995,10 @@
         <v>54</v>
       </c>
       <c r="B67">
-        <v>132</v>
+        <v>55428</v>
       </c>
       <c r="C67">
-        <v>16455</v>
+        <v>16620</v>
       </c>
       <c r="D67">
         <f t="shared" si="0"/>
@@ -6294,14 +7010,14 @@
         <v>55</v>
       </c>
       <c r="B68">
-        <v>132</v>
+        <v>59584</v>
       </c>
       <c r="C68">
-        <v>16746</v>
+        <v>16912</v>
       </c>
       <c r="D68">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -6309,14 +7025,14 @@
         <v>56</v>
       </c>
       <c r="B69">
-        <v>132</v>
+        <v>57746</v>
       </c>
       <c r="C69">
-        <v>17036</v>
+        <v>17205</v>
       </c>
       <c r="D69">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -6324,14 +7040,14 @@
         <v>57</v>
       </c>
       <c r="B70">
-        <v>132</v>
+        <v>61991</v>
       </c>
       <c r="C70">
-        <v>17329</v>
+        <v>17497</v>
       </c>
       <c r="D70">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -6339,10 +7055,10 @@
         <v>58</v>
       </c>
       <c r="B71">
-        <v>132</v>
+        <v>60064</v>
       </c>
       <c r="C71">
-        <v>17621</v>
+        <v>17789</v>
       </c>
       <c r="D71">
         <f t="shared" si="0"/>
@@ -6354,10 +7070,10 @@
         <v>59</v>
       </c>
       <c r="B72">
-        <v>132</v>
+        <v>64464</v>
       </c>
       <c r="C72">
-        <v>17913</v>
+        <v>18081</v>
       </c>
       <c r="D72">
         <f t="shared" si="0"/>
@@ -6369,14 +7085,14 @@
         <v>60</v>
       </c>
       <c r="B73">
-        <v>132</v>
+        <v>62382</v>
       </c>
       <c r="C73">
-        <v>18206</v>
+        <v>18372</v>
       </c>
       <c r="D73">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -6384,14 +7100,14 @@
         <v>61</v>
       </c>
       <c r="B74">
-        <v>132</v>
+        <v>66904</v>
       </c>
       <c r="C74">
-        <v>18498</v>
+        <v>18665</v>
       </c>
       <c r="D74">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -6399,10 +7115,10 @@
         <v>62</v>
       </c>
       <c r="B75">
-        <v>132</v>
+        <v>64700</v>
       </c>
       <c r="C75">
-        <v>18789</v>
+        <v>18956</v>
       </c>
       <c r="D75">
         <f t="shared" si="0"/>
@@ -6414,14 +7130,14 @@
         <v>63</v>
       </c>
       <c r="B76">
-        <v>132</v>
+        <v>69344</v>
       </c>
       <c r="C76">
-        <v>19080</v>
+        <v>19248</v>
       </c>
       <c r="D76">
         <f t="shared" ref="D76:D139" si="1">C76-C75</f>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -6429,10 +7145,10 @@
         <v>64</v>
       </c>
       <c r="B77">
-        <v>132</v>
+        <v>67018</v>
       </c>
       <c r="C77">
-        <v>19372</v>
+        <v>19540</v>
       </c>
       <c r="D77">
         <f t="shared" si="1"/>
@@ -6444,14 +7160,14 @@
         <v>65</v>
       </c>
       <c r="B78">
-        <v>161</v>
+        <v>71784</v>
       </c>
       <c r="C78">
-        <v>19664</v>
+        <v>19834</v>
       </c>
       <c r="D78">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -6459,10 +7175,10 @@
         <v>66</v>
       </c>
       <c r="B79">
-        <v>132</v>
+        <v>69336</v>
       </c>
       <c r="C79">
-        <v>19956</v>
+        <v>20126</v>
       </c>
       <c r="D79">
         <f t="shared" si="1"/>
@@ -6474,14 +7190,14 @@
         <v>67</v>
       </c>
       <c r="B80">
-        <v>136</v>
+        <v>74224</v>
       </c>
       <c r="C80">
-        <v>20248</v>
+        <v>20419</v>
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -6489,10 +7205,10 @@
         <v>68</v>
       </c>
       <c r="B81">
-        <v>132</v>
+        <v>71654</v>
       </c>
       <c r="C81">
-        <v>20541</v>
+        <v>20712</v>
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
@@ -6504,14 +7220,14 @@
         <v>69</v>
       </c>
       <c r="B82">
-        <v>132</v>
+        <v>76664</v>
       </c>
       <c r="C82">
-        <v>20833</v>
+        <v>21005</v>
       </c>
       <c r="D82">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -6519,14 +7235,14 @@
         <v>70</v>
       </c>
       <c r="B83">
-        <v>132</v>
+        <v>73972</v>
       </c>
       <c r="C83">
-        <v>21124</v>
+        <v>21297</v>
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6534,14 +7250,14 @@
         <v>71</v>
       </c>
       <c r="B84">
-        <v>161</v>
+        <v>79104</v>
       </c>
       <c r="C84">
-        <v>21416</v>
+        <v>21590</v>
       </c>
       <c r="D84">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -6549,14 +7265,14 @@
         <v>72</v>
       </c>
       <c r="B85">
-        <v>132</v>
+        <v>76290</v>
       </c>
       <c r="C85">
-        <v>21708</v>
+        <v>21879</v>
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,14 +7280,14 @@
         <v>73</v>
       </c>
       <c r="B86">
-        <v>132</v>
+        <v>81544</v>
       </c>
       <c r="C86">
-        <v>22000</v>
+        <v>22172</v>
       </c>
       <c r="D86">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -6579,14 +7295,14 @@
         <v>74</v>
       </c>
       <c r="B87">
-        <v>132</v>
+        <v>78636</v>
       </c>
       <c r="C87">
-        <v>22292</v>
+        <v>22466</v>
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -6594,14 +7310,14 @@
         <v>75</v>
       </c>
       <c r="B88">
-        <v>132</v>
+        <v>83984</v>
       </c>
       <c r="C88">
-        <v>22583</v>
+        <v>22758</v>
       </c>
       <c r="D88">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -6609,14 +7325,14 @@
         <v>76</v>
       </c>
       <c r="B89">
-        <v>103</v>
+        <v>80926</v>
       </c>
       <c r="C89">
-        <v>22874</v>
+        <v>23050</v>
       </c>
       <c r="D89">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -6624,14 +7340,14 @@
         <v>77</v>
       </c>
       <c r="B90">
-        <v>132</v>
+        <v>86424</v>
       </c>
       <c r="C90">
-        <v>23166</v>
+        <v>23341</v>
       </c>
       <c r="D90">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,14 +7355,14 @@
         <v>78</v>
       </c>
       <c r="B91">
-        <v>132</v>
+        <v>83305</v>
       </c>
       <c r="C91">
-        <v>23457</v>
+        <v>23633</v>
       </c>
       <c r="D91">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -6654,14 +7370,14 @@
         <v>79</v>
       </c>
       <c r="B92">
-        <v>132</v>
+        <v>88864</v>
       </c>
       <c r="C92">
-        <v>23748</v>
+        <v>23926</v>
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -6669,14 +7385,14 @@
         <v>80</v>
       </c>
       <c r="B93">
-        <v>132</v>
+        <v>85623</v>
       </c>
       <c r="C93">
-        <v>24039</v>
+        <v>24218</v>
       </c>
       <c r="D93">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -6684,14 +7400,14 @@
         <v>81</v>
       </c>
       <c r="B94">
-        <v>132</v>
+        <v>91304</v>
       </c>
       <c r="C94">
-        <v>24330</v>
+        <v>24510</v>
       </c>
       <c r="D94">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -6699,14 +7415,14 @@
         <v>82</v>
       </c>
       <c r="B95">
-        <v>161</v>
+        <v>87941</v>
       </c>
       <c r="C95">
-        <v>24621</v>
+        <v>24803</v>
       </c>
       <c r="D95">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -6714,10 +7430,10 @@
         <v>83</v>
       </c>
       <c r="B96">
-        <v>103</v>
+        <v>93744</v>
       </c>
       <c r="C96">
-        <v>24913</v>
+        <v>25095</v>
       </c>
       <c r="D96">
         <f t="shared" si="1"/>
@@ -6729,10 +7445,10 @@
         <v>84</v>
       </c>
       <c r="B97">
-        <v>132</v>
+        <v>90259</v>
       </c>
       <c r="C97">
-        <v>25205</v>
+        <v>25387</v>
       </c>
       <c r="D97">
         <f t="shared" si="1"/>
@@ -6744,14 +7460,14 @@
         <v>85</v>
       </c>
       <c r="B98">
-        <v>132</v>
+        <v>96184</v>
       </c>
       <c r="C98">
-        <v>25496</v>
+        <v>25681</v>
       </c>
       <c r="D98">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -6759,14 +7475,14 @@
         <v>86</v>
       </c>
       <c r="B99">
-        <v>132</v>
+        <v>92577</v>
       </c>
       <c r="C99">
-        <v>25787</v>
+        <v>25973</v>
       </c>
       <c r="D99">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -6774,14 +7490,14 @@
         <v>87</v>
       </c>
       <c r="B100">
-        <v>161</v>
+        <v>93675</v>
       </c>
       <c r="C100">
-        <v>26080</v>
+        <v>26264</v>
       </c>
       <c r="D100">
         <f t="shared" si="1"/>
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -6789,14 +7505,14 @@
         <v>88</v>
       </c>
       <c r="B101">
-        <v>132</v>
+        <v>99844</v>
       </c>
       <c r="C101">
-        <v>26370</v>
+        <v>26555</v>
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -6804,14 +7520,14 @@
         <v>89</v>
       </c>
       <c r="B102">
-        <v>103</v>
+        <v>95993</v>
       </c>
       <c r="C102">
-        <v>26661</v>
+        <v>26847</v>
       </c>
       <c r="D102">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -6819,14 +7535,14 @@
         <v>90</v>
       </c>
       <c r="B103">
-        <v>132</v>
+        <v>102284</v>
       </c>
       <c r="C103">
-        <v>26952</v>
+        <v>27139</v>
       </c>
       <c r="D103">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -6834,10 +7550,10 @@
         <v>91</v>
       </c>
       <c r="B104">
-        <v>132</v>
+        <v>98311</v>
       </c>
       <c r="C104">
-        <v>27243</v>
+        <v>27430</v>
       </c>
       <c r="D104">
         <f t="shared" si="1"/>
@@ -6849,14 +7565,14 @@
         <v>92</v>
       </c>
       <c r="B105">
-        <v>128</v>
+        <v>104724</v>
       </c>
       <c r="C105">
-        <v>27534</v>
+        <v>27723</v>
       </c>
       <c r="D105">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -6864,14 +7580,14 @@
         <v>93</v>
       </c>
       <c r="B106">
-        <v>132</v>
+        <v>100641</v>
       </c>
       <c r="C106">
-        <v>27825</v>
+        <v>28015</v>
       </c>
       <c r="D106">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -6879,10 +7595,10 @@
         <v>94</v>
       </c>
       <c r="B107">
-        <v>132</v>
+        <v>107164</v>
       </c>
       <c r="C107">
-        <v>28116</v>
+        <v>28306</v>
       </c>
       <c r="D107">
         <f t="shared" si="1"/>
@@ -6894,14 +7610,14 @@
         <v>95</v>
       </c>
       <c r="B108">
-        <v>132</v>
+        <v>103008</v>
       </c>
       <c r="C108">
-        <v>28407</v>
+        <v>28598</v>
       </c>
       <c r="D108">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -6909,10 +7625,10 @@
         <v>96</v>
       </c>
       <c r="B109">
-        <v>103</v>
+        <v>104106</v>
       </c>
       <c r="C109">
-        <v>28698</v>
+        <v>28889</v>
       </c>
       <c r="D109">
         <f t="shared" si="1"/>
@@ -6924,14 +7640,14 @@
         <v>97</v>
       </c>
       <c r="B110">
-        <v>132</v>
+        <v>110824</v>
       </c>
       <c r="C110">
-        <v>28990</v>
+        <v>29182</v>
       </c>
       <c r="D110">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -6939,14 +7655,14 @@
         <v>98</v>
       </c>
       <c r="B111">
-        <v>132</v>
+        <v>112044</v>
       </c>
       <c r="C111">
-        <v>29282</v>
+        <v>29476</v>
       </c>
       <c r="D111">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -6954,14 +7670,14 @@
         <v>99</v>
       </c>
       <c r="B112">
-        <v>132</v>
+        <v>107644</v>
       </c>
       <c r="C112">
-        <v>29573</v>
+        <v>29768</v>
       </c>
       <c r="D112">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -6969,14 +7685,14 @@
         <v>100</v>
       </c>
       <c r="B113">
-        <v>132</v>
+        <v>108742</v>
       </c>
       <c r="C113">
-        <v>29864</v>
+        <v>30060</v>
       </c>
       <c r="D113">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -6984,14 +7700,14 @@
         <v>101</v>
       </c>
       <c r="B114">
-        <v>132</v>
+        <v>115704</v>
       </c>
       <c r="C114">
-        <v>30156</v>
+        <v>30351</v>
       </c>
       <c r="D114">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -6999,14 +7715,14 @@
         <v>102</v>
       </c>
       <c r="B115">
-        <v>132</v>
+        <v>111060</v>
       </c>
       <c r="C115">
-        <v>30449</v>
+        <v>30643</v>
       </c>
       <c r="D115">
         <f t="shared" si="1"/>
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -7014,14 +7730,14 @@
         <v>103</v>
       </c>
       <c r="B116">
-        <v>161</v>
+        <v>117616</v>
       </c>
       <c r="C116">
-        <v>30740</v>
+        <v>30935</v>
       </c>
       <c r="D116">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -7029,14 +7745,14 @@
         <v>104</v>
       </c>
       <c r="B117">
-        <v>132</v>
+        <v>112256</v>
       </c>
       <c r="C117">
-        <v>31032</v>
+        <v>31226</v>
       </c>
       <c r="D117">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -7044,10 +7760,10 @@
         <v>105</v>
       </c>
       <c r="B118">
-        <v>136</v>
+        <v>118736</v>
       </c>
       <c r="C118">
-        <v>31324</v>
+        <v>31518</v>
       </c>
       <c r="D118">
         <f t="shared" si="1"/>
@@ -7059,14 +7775,14 @@
         <v>106</v>
       </c>
       <c r="B119">
-        <v>132</v>
+        <v>113348</v>
       </c>
       <c r="C119">
-        <v>31615</v>
+        <v>31811</v>
       </c>
       <c r="D119">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -7074,10 +7790,10 @@
         <v>107</v>
       </c>
       <c r="B120">
-        <v>128</v>
+        <v>119856</v>
       </c>
       <c r="C120">
-        <v>31907</v>
+        <v>32103</v>
       </c>
       <c r="D120">
         <f t="shared" si="1"/>
@@ -7089,14 +7805,14 @@
         <v>108</v>
       </c>
       <c r="B121">
-        <v>132</v>
+        <v>114412</v>
       </c>
       <c r="C121">
-        <v>32197</v>
+        <v>32394</v>
       </c>
       <c r="D121">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -7104,10 +7820,10 @@
         <v>109</v>
       </c>
       <c r="B122">
-        <v>132</v>
+        <v>120784</v>
       </c>
       <c r="C122">
-        <v>32489</v>
+        <v>32686</v>
       </c>
       <c r="D122">
         <f t="shared" si="1"/>
@@ -7119,14 +7835,14 @@
         <v>110</v>
       </c>
       <c r="B123">
-        <v>33</v>
+        <v>114980</v>
       </c>
       <c r="C123">
-        <v>32781</v>
+        <v>32977</v>
       </c>
       <c r="D123">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -7134,14 +7850,14 @@
         <v>111</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>115196</v>
       </c>
       <c r="C124">
-        <v>33071</v>
+        <v>33269</v>
       </c>
       <c r="D124">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -7149,14 +7865,14 @@
         <v>112</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>121504</v>
       </c>
       <c r="C125">
-        <v>33361</v>
+        <v>33561</v>
       </c>
       <c r="D125">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -7164,14 +7880,14 @@
         <v>113</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>115652</v>
       </c>
       <c r="C126">
-        <v>33652</v>
+        <v>33854</v>
       </c>
       <c r="D126">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -7179,14 +7895,14 @@
         <v>114</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>121984</v>
       </c>
       <c r="C127">
-        <v>33944</v>
+        <v>34144</v>
       </c>
       <c r="D127">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -7194,14 +7910,14 @@
         <v>115</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>115976</v>
       </c>
       <c r="C128">
-        <v>34234</v>
+        <v>34435</v>
       </c>
       <c r="D128">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -7209,14 +7925,14 @@
         <v>116</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>122080</v>
       </c>
       <c r="C129">
-        <v>34525</v>
+        <v>34727</v>
       </c>
       <c r="D129">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -7224,14 +7940,14 @@
         <v>117</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>115976</v>
       </c>
       <c r="C130">
-        <v>34817</v>
+        <v>35018</v>
       </c>
       <c r="D130">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -7239,14 +7955,14 @@
         <v>118</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>122080</v>
       </c>
       <c r="C131">
-        <v>35107</v>
+        <v>35311</v>
       </c>
       <c r="D131">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -7254,14 +7970,14 @@
         <v>119</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>115976</v>
       </c>
       <c r="C132">
-        <v>35398</v>
+        <v>35603</v>
       </c>
       <c r="D132">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,14 +7985,14 @@
         <v>120</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>115976</v>
       </c>
       <c r="C133">
-        <v>35689</v>
+        <v>35895</v>
       </c>
       <c r="D133">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -7284,14 +8000,14 @@
         <v>121</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>122080</v>
       </c>
       <c r="C134">
-        <v>35980</v>
+        <v>36187</v>
       </c>
       <c r="D134">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -7299,14 +8015,14 @@
         <v>122</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>115976</v>
       </c>
       <c r="C135">
-        <v>36271</v>
+        <v>36479</v>
       </c>
       <c r="D135">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -7317,11 +8033,11 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>36561</v>
+        <v>37054</v>
       </c>
       <c r="D136">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>575</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -7332,11 +8048,11 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>36851</v>
+        <v>37346</v>
       </c>
       <c r="D137">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -7347,11 +8063,11 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>37143</v>
+        <v>37639</v>
       </c>
       <c r="D138">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -7362,11 +8078,11 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>37434</v>
+        <v>37931</v>
       </c>
       <c r="D139">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -7377,149 +8093,62 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>37726</v>
+        <v>38214</v>
       </c>
       <c r="D140">
-        <f t="shared" ref="D140:D149" si="2">C140-C139</f>
-        <v>292</v>
+        <f t="shared" ref="D140" si="2">C140-C139</f>
+        <v>283</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>128</v>
       </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>38018</v>
-      </c>
-      <c r="D141">
-        <f t="shared" si="2"/>
-        <v>292</v>
-      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>129</v>
       </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>38308</v>
-      </c>
-      <c r="D142">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>130</v>
       </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>38599</v>
-      </c>
-      <c r="D143">
-        <f t="shared" si="2"/>
-        <v>291</v>
-      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>131</v>
       </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>38942</v>
-      </c>
-      <c r="D144">
-        <f t="shared" si="2"/>
-        <v>343</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>132</v>
       </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>39233</v>
-      </c>
-      <c r="D145">
-        <f t="shared" si="2"/>
-        <v>291</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>133</v>
       </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>39525</v>
-      </c>
-      <c r="D146">
-        <f>C146-C145</f>
-        <v>292</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>134</v>
       </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>39815</v>
-      </c>
-      <c r="D147">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>135</v>
       </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>40083</v>
-      </c>
-      <c r="D148">
-        <f t="shared" si="2"/>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>136</v>
       </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>40376</v>
-      </c>
-      <c r="D149">
-        <f>C149-C148</f>
-        <v>293</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charz\Documents\Unity\GTRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B38AC0-09D7-4F33-8908-AEBFF3D9A2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE4F5AF-64DE-473A-9F2E-1420683177F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bandwidth Tests" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Time (s)</t>
   </si>
@@ -60,10 +60,10 @@
     <t>fps</t>
   </si>
   <si>
-    <t>API</t>
+    <t>Bundled Optimised</t>
   </si>
   <si>
-    <t>Bundled Optimised</t>
+    <t>GTRP API</t>
   </si>
 </sst>
 </file>
@@ -716,398 +716,390 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Bandwidth Tests'!$A$3:$A$132</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Bandwidth Tests'!$A$3:$A$132</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Bandwidth Tests'!$A$8:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="125"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>31</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>33</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>36</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>46</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>47</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>48</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>49</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>53</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>54</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>57</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>58</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>59</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>61</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>62</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>63</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>64</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>66</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>67</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>68</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>69</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>71</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>72</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>73</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>74</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>75</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>76</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>77</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>78</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>79</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>80</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>81</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>82</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>83</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>85</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>86</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>87</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>88</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>89</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>90</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>91</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>92</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>94</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>96</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>97</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>98</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>99</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>101</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>102</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>103</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>104</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>105</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>106</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>107</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>108</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>110</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>112</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>113</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>114</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>115</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>116</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>117</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>118</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="129">
                   <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
@@ -1115,10 +1107,320 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bandwidth Tests'!$B$3:$B$108</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Bandwidth Tests'!$B$3:$B$108</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Bandwidth Tests'!$B$8:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18866</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19464</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23588</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33514</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38310</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46540</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42376</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46090</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1160,398 +1462,390 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Bandwidth Tests'!$A$3:$A$132</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Bandwidth Tests'!$A$3:$A$132</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Bandwidth Tests'!$A$8:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="125"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>31</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>33</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>36</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>46</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>47</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>48</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>49</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>53</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>54</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>57</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>58</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>59</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>61</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>62</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>63</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>64</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>66</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>67</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>68</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>69</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>71</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>72</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>73</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>74</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>75</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>76</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>77</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>78</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>79</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>80</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>81</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>82</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>83</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>85</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>86</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>87</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>88</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>89</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>90</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>91</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>92</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>94</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>96</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>97</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>98</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>99</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>101</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>102</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>103</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>104</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>105</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>106</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>107</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>108</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>110</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>112</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>113</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>114</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>115</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>116</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>117</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>118</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="129">
                   <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
@@ -1559,57 +1853,76 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bandwidth Tests'!$C$3:$C$108</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Bandwidth Tests'!$C$3:$C$108</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Bandwidth Tests'!$C$8:$C$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>308</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>743</c:v>
+                  <c:v>3920</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5040</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>560</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1680</c:v>
+                  <c:v>5488</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2800</c:v>
+                  <c:v>5432</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3920</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5040</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5488</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5432</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5600</c:v>
+                  <c:v>5488</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5600</c:v>
+                  <c:v>5432</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5600</c:v>
@@ -1621,19 +1934,19 @@
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5488</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>5432</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5600</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>5600</c:v>
+                  <c:v>5544</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5600</c:v>
@@ -1642,22 +1955,22 @@
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>5544</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>5432</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5544</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5600</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>5600</c:v>
+                  <c:v>5488</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5600</c:v>
+                  <c:v>5488</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>5600</c:v>
@@ -1666,22 +1979,22 @@
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5544</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5488</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5488</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5600</c:v>
+                  <c:v>5488</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5600</c:v>
+                  <c:v>5432</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>5600</c:v>
@@ -1693,13 +2006,13 @@
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>5488</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>5432</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5600</c:v>
@@ -1711,67 +2024,67 @@
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5488</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5432</c:v>
+                  <c:v>5544</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5600</c:v>
+                  <c:v>5376</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5600</c:v>
+                  <c:v>5544</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5600</c:v>
+                  <c:v>5432</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>5544</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5376</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>5544</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>5432</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>5544</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5544</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5432</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>5544</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>5600</c:v>
@@ -1780,10 +2093,10 @@
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5600</c:v>
+                  <c:v>5544</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5376</c:v>
+                  <c:v>5432</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5544</c:v>
@@ -1798,22 +2111,22 @@
                   <c:v>5544</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5432</c:v>
+                  <c:v>5376</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5544</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>5320</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="86">
-                  <c:v>5544</c:v>
-                </c:pt>
                 <c:pt idx="87">
-                  <c:v>5376</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>5600</c:v>
@@ -1822,16 +2135,16 @@
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5320</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5600</c:v>
+                  <c:v>5488</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5600</c:v>
+                  <c:v>5432</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>5600</c:v>
@@ -1843,30 +2156,15 @@
                   <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5488</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5432</c:v>
+                  <c:v>5544</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5600</c:v>
+                  <c:v>5376</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5544</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>5376</c:v>
-                </c:pt>
-                <c:pt idx="105">
                   <c:v>5600</c:v>
                 </c:pt>
               </c:numCache>
@@ -1910,398 +2208,390 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Bandwidth Tests'!$A$3:$A$132</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Bandwidth Tests'!$A$3:$A$132</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Bandwidth Tests'!$A$8:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="125"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>31</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>33</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>36</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>46</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>47</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>48</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>49</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>53</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>54</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>57</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>58</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>59</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>61</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>62</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>63</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>64</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>66</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>67</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>68</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>69</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>71</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>72</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>73</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>74</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>75</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>76</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>77</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>78</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>79</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>80</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>81</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>82</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>83</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>85</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>86</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>87</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>88</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>89</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>90</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>91</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>92</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>94</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>96</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>97</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>98</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>99</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>101</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>102</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>103</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>104</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>105</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>106</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>107</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>108</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>110</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>112</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>113</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>114</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>115</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>116</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>117</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>118</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="129">
                   <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
@@ -2309,93 +2599,100 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bandwidth Tests'!$D$3:$D$108</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Bandwidth Tests'!$D$3:$D$108</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Bandwidth Tests'!$D$8:$D$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>774</c:v>
+                  <c:v>1595</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>277</c:v>
+                  <c:v>2175</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2755</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>406</c:v>
+                  <c:v>2842</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>986</c:v>
+                  <c:v>3037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1595</c:v>
+                  <c:v>3460</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2175</c:v>
+                  <c:v>3780</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2755</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2842</c:v>
+                  <c:v>4330</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3037</c:v>
+                  <c:v>4365</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3460</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3780</c:v>
+                  <c:v>4920</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4100</c:v>
+                  <c:v>5160</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4330</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4365</c:v>
+                  <c:v>5640</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4680</c:v>
+                  <c:v>5415</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4920</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5160</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5400</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5640</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>5415</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5700</c:v>
@@ -2410,13 +2707,13 @@
                   <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5415</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5700</c:v>
+                  <c:v>5529</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5700</c:v>
+                  <c:v>5586</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>5700</c:v>
@@ -2428,10 +2725,10 @@
                   <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5529</c:v>
+                  <c:v>5643</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5586</c:v>
+                  <c:v>5472</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>5700</c:v>
@@ -2443,13 +2740,13 @@
                   <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5643</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>5472</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5700</c:v>
+                  <c:v>5643</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5700</c:v>
@@ -2461,13 +2758,13 @@
                   <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5472</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5643</c:v>
+                  <c:v>5529</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5700</c:v>
+                  <c:v>5586</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5700</c:v>
@@ -2494,13 +2791,13 @@
                   <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5529</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>5586</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5700</c:v>
+                  <c:v>5529</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>5700</c:v>
@@ -2512,13 +2809,13 @@
                   <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5586</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>5529</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5700</c:v>
+                  <c:v>5586</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>5700</c:v>
@@ -2530,13 +2827,13 @@
                   <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5529</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5586</c:v>
+                  <c:v>5472</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5700</c:v>
+                  <c:v>5643</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>5700</c:v>
@@ -2548,16 +2845,16 @@
                   <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5472</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>5643</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5700</c:v>
+                  <c:v>5529</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5700</c:v>
+                  <c:v>5643</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>5700</c:v>
@@ -2566,19 +2863,19 @@
                   <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5643</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5529</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>5643</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5700</c:v>
+                  <c:v>5529</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5700</c:v>
+                  <c:v>5643</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>5700</c:v>
@@ -2587,13 +2884,13 @@
                   <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5643</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>5586</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>5529</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5643</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>5700</c:v>
@@ -2605,30 +2902,15 @@
                   <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>5586</c:v>
                 </c:pt>
-                <c:pt idx="98">
-                  <c:v>5529</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5700</c:v>
-                </c:pt>
                 <c:pt idx="100">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>5586</c:v>
-                </c:pt>
-                <c:pt idx="105">
                   <c:v>5586</c:v>
                 </c:pt>
               </c:numCache>
@@ -2670,83 +2952,415 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="101"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>33</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>34</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>36</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>37</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>38</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>42</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>43</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>44</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>47</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>48</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>49</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>51</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>52</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>53</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>54</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>55</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>56</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>57</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>58</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>59</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>61</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>63</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>65</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>66</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>67</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>68</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>69</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>71</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>72</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>73</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>74</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>75</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>76</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>77</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>78</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>79</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>82</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>83</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>84</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>85</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>86</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>87</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>88</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>89</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>91</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>92</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>93</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>94</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>95</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>96</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>97</c:v>
+              </c:pt>
+              <c:pt idx="98">
+                <c:v>98</c:v>
+              </c:pt>
+              <c:pt idx="99">
+                <c:v>99</c:v>
+              </c:pt>
+              <c:pt idx="100">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bandwidth Tests'!$E$3:$E$108</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Bandwidth Tests'!$E$3:$E$108</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Bandwidth Tests'!$E$8:$E$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1051</c:v>
+                  <c:v>1825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3079</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>555</c:v>
+                  <c:v>3211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1235</c:v>
+                  <c:v>3620</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1825</c:v>
+                  <c:v>3755</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2588</c:v>
+                  <c:v>4260</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3079</c:v>
+                  <c:v>4363</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3211</c:v>
+                  <c:v>4916</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3620</c:v>
+                  <c:v>4731</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3755</c:v>
+                  <c:v>5172</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4260</c:v>
+                  <c:v>5139</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4363</c:v>
+                  <c:v>5367</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4916</c:v>
+                  <c:v>5892</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4731</c:v>
+                  <c:v>5823</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5172</c:v>
+                  <c:v>6180</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5139</c:v>
+                  <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5367</c:v>
+                  <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5892</c:v>
+                  <c:v>6180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5823</c:v>
+                  <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>6180</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5871</c:v>
@@ -2782,10 +3396,10 @@
                   <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>6180</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>5871</c:v>
@@ -2797,16 +3411,16 @@
                   <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5871</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>6180</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>5871</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6180</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>5871</c:v>
@@ -2824,10 +3438,10 @@
                   <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>5871</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6180</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>5871</c:v>
@@ -2845,10 +3459,10 @@
                   <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="60">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>5871</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6180</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>5871</c:v>
@@ -2935,10 +3549,10 @@
                   <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>6180</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>5871</c:v>
@@ -2965,21 +3579,6 @@
                   <c:v>5871</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5871</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>6180</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>5871</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>6180</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>5871</c:v>
-                </c:pt>
-                <c:pt idx="105">
                   <c:v>6180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4198,10 +4797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4232,13 +4831,19 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-5</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
         <v>0</v>
       </c>
@@ -4247,6 +4852,12 @@
       <c r="A4">
         <v>-4</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -4255,6 +4866,12 @@
       <c r="A5">
         <v>-3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -4263,6 +4880,12 @@
       <c r="A6">
         <v>-2</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -4271,6 +4894,9 @@
       <c r="A7">
         <v>-1</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>0</v>
       </c>
@@ -4283,6 +4909,9 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
@@ -4299,6 +4928,9 @@
       <c r="A9">
         <v>1</v>
       </c>
+      <c r="B9">
+        <v>928</v>
+      </c>
       <c r="C9">
         <v>308</v>
       </c>
@@ -4313,6 +4945,9 @@
       <c r="A10">
         <v>2</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>743</v>
       </c>
@@ -4327,6 +4962,9 @@
       <c r="A11">
         <v>3</v>
       </c>
+      <c r="B11">
+        <v>3462</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -4341,6 +4979,9 @@
       <c r="A12">
         <v>4</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>560</v>
       </c>
@@ -4355,6 +4996,9 @@
       <c r="A13">
         <v>5</v>
       </c>
+      <c r="B13">
+        <v>7330</v>
+      </c>
       <c r="C13">
         <v>1680</v>
       </c>
@@ -4369,6 +5013,9 @@
       <c r="A14">
         <v>6</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>2800</v>
       </c>
@@ -4383,6 +5030,9 @@
       <c r="A15">
         <v>7</v>
       </c>
+      <c r="B15">
+        <v>11238</v>
+      </c>
       <c r="C15">
         <v>3920</v>
       </c>
@@ -4397,6 +5047,9 @@
       <c r="A16">
         <v>8</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>5040</v>
       </c>
@@ -4411,6 +5064,9 @@
       <c r="A17">
         <v>9</v>
       </c>
+      <c r="B17">
+        <v>14892</v>
+      </c>
       <c r="C17">
         <v>5600</v>
       </c>
@@ -4425,6 +5081,9 @@
       <c r="A18">
         <v>10</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>5488</v>
       </c>
@@ -4439,6 +5098,9 @@
       <c r="A19">
         <v>11</v>
       </c>
+      <c r="B19">
+        <v>18866</v>
+      </c>
       <c r="C19">
         <v>5432</v>
       </c>
@@ -4453,6 +5115,9 @@
       <c r="A20">
         <v>12</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>5600</v>
       </c>
@@ -4467,6 +5132,9 @@
       <c r="A21">
         <v>13</v>
       </c>
+      <c r="B21">
+        <v>19464</v>
+      </c>
       <c r="C21">
         <v>5600</v>
       </c>
@@ -4481,6 +5149,9 @@
       <c r="A22">
         <v>14</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>5600</v>
       </c>
@@ -4495,6 +5166,9 @@
       <c r="A23">
         <v>15</v>
       </c>
+      <c r="B23">
+        <v>23588</v>
+      </c>
       <c r="C23">
         <v>5600</v>
       </c>
@@ -4509,6 +5183,9 @@
       <c r="A24">
         <v>16</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>5600</v>
       </c>
@@ -4523,6 +5200,9 @@
       <c r="A25">
         <v>17</v>
       </c>
+      <c r="B25">
+        <v>28700</v>
+      </c>
       <c r="C25">
         <v>5600</v>
       </c>
@@ -4537,6 +5217,9 @@
       <c r="A26">
         <v>18</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>5488</v>
       </c>
@@ -4551,6 +5234,9 @@
       <c r="A27">
         <v>19</v>
       </c>
+      <c r="B27">
+        <v>33514</v>
+      </c>
       <c r="C27">
         <v>5432</v>
       </c>
@@ -4565,6 +5251,9 @@
       <c r="A28">
         <v>20</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>5600</v>
       </c>
@@ -4579,6 +5268,9 @@
       <c r="A29">
         <v>21</v>
       </c>
+      <c r="B29">
+        <v>38310</v>
+      </c>
       <c r="C29">
         <v>5600</v>
       </c>
@@ -4593,6 +5285,9 @@
       <c r="A30">
         <v>22</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>5600</v>
       </c>
@@ -4607,6 +5302,9 @@
       <c r="A31">
         <v>23</v>
       </c>
+      <c r="B31">
+        <v>43250</v>
+      </c>
       <c r="C31">
         <v>5600</v>
       </c>
@@ -4621,6 +5319,9 @@
       <c r="A32">
         <v>24</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>5600</v>
       </c>
@@ -4635,6 +5336,9 @@
       <c r="A33">
         <v>25</v>
       </c>
+      <c r="B33">
+        <v>46540</v>
+      </c>
       <c r="C33">
         <v>5544</v>
       </c>
@@ -4649,6 +5353,9 @@
       <c r="A34">
         <v>26</v>
       </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>5432</v>
       </c>
@@ -4663,6 +5370,9 @@
       <c r="A35">
         <v>27</v>
       </c>
+      <c r="B35">
+        <v>43960</v>
+      </c>
       <c r="C35">
         <v>5544</v>
       </c>
@@ -4677,6 +5387,9 @@
       <c r="A36">
         <v>28</v>
       </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
       <c r="C36">
         <v>5600</v>
       </c>
@@ -4691,6 +5404,9 @@
       <c r="A37">
         <v>29</v>
       </c>
+      <c r="B37">
+        <v>44550</v>
+      </c>
       <c r="C37">
         <v>5600</v>
       </c>
@@ -4705,6 +5421,9 @@
       <c r="A38">
         <v>30</v>
       </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
       <c r="C38">
         <v>5600</v>
       </c>
@@ -4719,6 +5438,9 @@
       <c r="A39">
         <v>31</v>
       </c>
+      <c r="B39">
+        <v>44100</v>
+      </c>
       <c r="C39">
         <v>5600</v>
       </c>
@@ -4733,6 +5455,9 @@
       <c r="A40">
         <v>32</v>
       </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>5600</v>
       </c>
@@ -4747,6 +5472,9 @@
       <c r="A41">
         <v>33</v>
       </c>
+      <c r="B41">
+        <v>44260</v>
+      </c>
       <c r="C41">
         <v>5544</v>
       </c>
@@ -4761,6 +5489,9 @@
       <c r="A42">
         <v>34</v>
       </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>5488</v>
       </c>
@@ -4775,6 +5506,9 @@
       <c r="A43">
         <v>35</v>
       </c>
+      <c r="B43">
+        <v>44100</v>
+      </c>
       <c r="C43">
         <v>5488</v>
       </c>
@@ -4789,6 +5523,9 @@
       <c r="A44">
         <v>36</v>
       </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>5600</v>
       </c>
@@ -4803,6 +5540,9 @@
       <c r="A45">
         <v>37</v>
       </c>
+      <c r="B45">
+        <v>44410</v>
+      </c>
       <c r="C45">
         <v>5600</v>
       </c>
@@ -4817,6 +5557,9 @@
       <c r="A46">
         <v>38</v>
       </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>5600</v>
       </c>
@@ -4831,6 +5574,9 @@
       <c r="A47">
         <v>39</v>
       </c>
+      <c r="B47">
+        <v>44100</v>
+      </c>
       <c r="C47">
         <v>5600</v>
       </c>
@@ -4845,6 +5591,9 @@
       <c r="A48">
         <v>40</v>
       </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
       <c r="C48">
         <v>5600</v>
       </c>
@@ -4859,6 +5608,9 @@
       <c r="A49">
         <v>41</v>
       </c>
+      <c r="B49">
+        <v>44260</v>
+      </c>
       <c r="C49">
         <v>5600</v>
       </c>
@@ -4873,6 +5625,9 @@
       <c r="A50">
         <v>42</v>
       </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
       <c r="C50">
         <v>5488</v>
       </c>
@@ -4887,6 +5642,9 @@
       <c r="A51">
         <v>43</v>
       </c>
+      <c r="B51">
+        <v>44250</v>
+      </c>
       <c r="C51">
         <v>5432</v>
       </c>
@@ -4901,6 +5659,9 @@
       <c r="A52">
         <v>44</v>
       </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
       <c r="C52">
         <v>5600</v>
       </c>
@@ -4915,6 +5676,9 @@
       <c r="A53">
         <v>45</v>
       </c>
+      <c r="B53">
+        <v>44110</v>
+      </c>
       <c r="C53">
         <v>5600</v>
       </c>
@@ -4929,6 +5693,9 @@
       <c r="A54">
         <v>46</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>5600</v>
       </c>
@@ -4943,6 +5710,9 @@
       <c r="A55">
         <v>47</v>
       </c>
+      <c r="B55">
+        <v>44250</v>
+      </c>
       <c r="C55">
         <v>5600</v>
       </c>
@@ -4957,6 +5727,9 @@
       <c r="A56">
         <v>48</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>5488</v>
       </c>
@@ -4971,6 +5744,9 @@
       <c r="A57">
         <v>49</v>
       </c>
+      <c r="B57">
+        <v>42376</v>
+      </c>
       <c r="C57">
         <v>5432</v>
       </c>
@@ -4985,6 +5761,9 @@
       <c r="A58">
         <v>50</v>
       </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
       <c r="C58">
         <v>5600</v>
       </c>
@@ -4999,6 +5778,9 @@
       <c r="A59">
         <v>51</v>
       </c>
+      <c r="B59">
+        <v>44100</v>
+      </c>
       <c r="C59">
         <v>5600</v>
       </c>
@@ -5013,6 +5795,9 @@
       <c r="A60">
         <v>52</v>
       </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
       <c r="C60">
         <v>5600</v>
       </c>
@@ -5027,6 +5812,9 @@
       <c r="A61">
         <v>53</v>
       </c>
+      <c r="B61">
+        <v>44110</v>
+      </c>
       <c r="C61">
         <v>5600</v>
       </c>
@@ -5041,6 +5829,9 @@
       <c r="A62">
         <v>54</v>
       </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
       <c r="C62">
         <v>5544</v>
       </c>
@@ -5055,6 +5846,9 @@
       <c r="A63">
         <v>55</v>
       </c>
+      <c r="B63">
+        <v>44250</v>
+      </c>
       <c r="C63">
         <v>5376</v>
       </c>
@@ -5069,6 +5863,9 @@
       <c r="A64">
         <v>56</v>
       </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
       <c r="C64">
         <v>5600</v>
       </c>
@@ -5083,6 +5880,9 @@
       <c r="A65">
         <v>57</v>
       </c>
+      <c r="B65">
+        <v>44260</v>
+      </c>
       <c r="C65">
         <v>5544</v>
       </c>
@@ -5097,6 +5897,9 @@
       <c r="A66">
         <v>58</v>
       </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
       <c r="C66">
         <v>5432</v>
       </c>
@@ -5111,6 +5914,9 @@
       <c r="A67">
         <v>59</v>
       </c>
+      <c r="B67">
+        <v>44250</v>
+      </c>
       <c r="C67">
         <v>5544</v>
       </c>
@@ -5125,6 +5931,9 @@
       <c r="A68">
         <v>60</v>
       </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
       <c r="C68">
         <v>5600</v>
       </c>
@@ -5139,6 +5948,9 @@
       <c r="A69">
         <v>61</v>
       </c>
+      <c r="B69">
+        <v>44260</v>
+      </c>
       <c r="C69">
         <v>5600</v>
       </c>
@@ -5153,6 +5965,9 @@
       <c r="A70">
         <v>62</v>
       </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
       <c r="C70">
         <v>5600</v>
       </c>
@@ -5167,6 +5982,9 @@
       <c r="A71">
         <v>63</v>
       </c>
+      <c r="B71">
+        <v>44250</v>
+      </c>
       <c r="C71">
         <v>5544</v>
       </c>
@@ -5181,6 +5999,9 @@
       <c r="A72">
         <v>64</v>
       </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
       <c r="C72">
         <v>5600</v>
       </c>
@@ -5195,6 +6016,9 @@
       <c r="A73">
         <v>65</v>
       </c>
+      <c r="B73">
+        <v>44110</v>
+      </c>
       <c r="C73">
         <v>5432</v>
       </c>
@@ -5209,6 +6033,9 @@
       <c r="A74">
         <v>66</v>
       </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
       <c r="C74">
         <v>5544</v>
       </c>
@@ -5223,6 +6050,9 @@
       <c r="A75">
         <v>67</v>
       </c>
+      <c r="B75">
+        <v>44100</v>
+      </c>
       <c r="C75">
         <v>5600</v>
       </c>
@@ -5237,6 +6067,9 @@
       <c r="A76">
         <v>68</v>
       </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
       <c r="C76">
         <v>5600</v>
       </c>
@@ -5251,6 +6084,9 @@
       <c r="A77">
         <v>69</v>
       </c>
+      <c r="B77">
+        <v>44260</v>
+      </c>
       <c r="C77">
         <v>5600</v>
       </c>
@@ -5265,6 +6101,9 @@
       <c r="A78">
         <v>70</v>
       </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
       <c r="C78">
         <v>5600</v>
       </c>
@@ -5279,6 +6118,9 @@
       <c r="A79">
         <v>71</v>
       </c>
+      <c r="B79">
+        <v>43950</v>
+      </c>
       <c r="C79">
         <v>5600</v>
       </c>
@@ -5293,6 +6135,9 @@
       <c r="A80">
         <v>72</v>
       </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
       <c r="C80">
         <v>5376</v>
       </c>
@@ -5307,6 +6152,9 @@
       <c r="A81">
         <v>73</v>
       </c>
+      <c r="B81">
+        <v>44110</v>
+      </c>
       <c r="C81">
         <v>5544</v>
       </c>
@@ -5321,6 +6169,9 @@
       <c r="A82">
         <v>74</v>
       </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
       <c r="C82">
         <v>5600</v>
       </c>
@@ -5335,6 +6186,9 @@
       <c r="A83">
         <v>75</v>
       </c>
+      <c r="B83">
+        <v>46090</v>
+      </c>
       <c r="C83">
         <v>5600</v>
       </c>
@@ -5349,6 +6203,9 @@
       <c r="A84">
         <v>76</v>
       </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
       <c r="C84">
         <v>5544</v>
       </c>
@@ -5363,6 +6220,9 @@
       <c r="A85">
         <v>77</v>
       </c>
+      <c r="B85">
+        <v>44100</v>
+      </c>
       <c r="C85">
         <v>5432</v>
       </c>
@@ -5377,6 +6237,9 @@
       <c r="A86">
         <v>78</v>
       </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
       <c r="C86">
         <v>5544</v>
       </c>
@@ -5391,6 +6254,9 @@
       <c r="A87">
         <v>79</v>
       </c>
+      <c r="B87">
+        <v>44410</v>
+      </c>
       <c r="C87">
         <v>5600</v>
       </c>
@@ -5405,6 +6271,9 @@
       <c r="A88">
         <v>80</v>
       </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
       <c r="C88">
         <v>5600</v>
       </c>
@@ -5419,6 +6288,9 @@
       <c r="A89">
         <v>81</v>
       </c>
+      <c r="B89">
+        <v>44250</v>
+      </c>
       <c r="C89">
         <v>5544</v>
       </c>
@@ -5433,6 +6305,9 @@
       <c r="A90">
         <v>82</v>
       </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
       <c r="C90">
         <v>5376</v>
       </c>
@@ -5447,6 +6322,9 @@
       <c r="A91">
         <v>83</v>
       </c>
+      <c r="B91">
+        <v>43960</v>
+      </c>
       <c r="C91">
         <v>5600</v>
       </c>
@@ -5461,6 +6339,9 @@
       <c r="A92">
         <v>84</v>
       </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
       <c r="C92">
         <v>5600</v>
       </c>
@@ -5475,6 +6356,9 @@
       <c r="A93">
         <v>85</v>
       </c>
+      <c r="B93">
+        <v>44250</v>
+      </c>
       <c r="C93">
         <v>5320</v>
       </c>
@@ -5489,6 +6373,9 @@
       <c r="A94">
         <v>86</v>
       </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
       <c r="C94">
         <v>5600</v>
       </c>
@@ -5503,6 +6390,9 @@
       <c r="A95">
         <v>87</v>
       </c>
+      <c r="B95">
+        <v>44110</v>
+      </c>
       <c r="C95">
         <v>5600</v>
       </c>
@@ -5517,6 +6407,9 @@
       <c r="A96">
         <v>88</v>
       </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
       <c r="C96">
         <v>5600</v>
       </c>
@@ -5531,6 +6424,9 @@
       <c r="A97">
         <v>89</v>
       </c>
+      <c r="B97">
+        <v>44250</v>
+      </c>
       <c r="C97">
         <v>5600</v>
       </c>
@@ -5545,6 +6441,9 @@
       <c r="A98">
         <v>90</v>
       </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
       <c r="C98">
         <v>5600</v>
       </c>
@@ -5559,6 +6458,9 @@
       <c r="A99">
         <v>91</v>
       </c>
+      <c r="B99">
+        <v>43960</v>
+      </c>
       <c r="C99">
         <v>5600</v>
       </c>
@@ -5573,6 +6475,9 @@
       <c r="A100">
         <v>92</v>
       </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
       <c r="C100">
         <v>5488</v>
       </c>
@@ -5587,6 +6492,9 @@
       <c r="A101">
         <v>93</v>
       </c>
+      <c r="B101">
+        <v>44100</v>
+      </c>
       <c r="C101">
         <v>5432</v>
       </c>
@@ -5601,6 +6509,9 @@
       <c r="A102">
         <v>94</v>
       </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
       <c r="C102">
         <v>5600</v>
       </c>
@@ -5615,6 +6526,9 @@
       <c r="A103">
         <v>95</v>
       </c>
+      <c r="B103">
+        <v>43960</v>
+      </c>
       <c r="C103">
         <v>5600</v>
       </c>
@@ -5629,6 +6543,9 @@
       <c r="A104">
         <v>96</v>
       </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
       <c r="C104">
         <v>5600</v>
       </c>
@@ -5643,6 +6560,9 @@
       <c r="A105">
         <v>97</v>
       </c>
+      <c r="B105">
+        <v>44250</v>
+      </c>
       <c r="C105">
         <v>5600</v>
       </c>
@@ -5657,6 +6577,9 @@
       <c r="A106">
         <v>98</v>
       </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
       <c r="C106">
         <v>5544</v>
       </c>
@@ -5671,6 +6594,9 @@
       <c r="A107">
         <v>99</v>
       </c>
+      <c r="B107">
+        <v>44260</v>
+      </c>
       <c r="C107">
         <v>5376</v>
       </c>
@@ -5685,6 +6611,9 @@
       <c r="A108">
         <v>100</v>
       </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
       <c r="C108">
         <v>5600</v>
       </c>
@@ -5699,6 +6628,9 @@
       <c r="A109">
         <v>101</v>
       </c>
+      <c r="B109">
+        <v>44100</v>
+      </c>
       <c r="C109">
         <v>5600</v>
       </c>
@@ -5713,6 +6645,9 @@
       <c r="A110">
         <v>102</v>
       </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
       <c r="C110">
         <v>5600</v>
       </c>
@@ -5727,6 +6662,9 @@
       <c r="A111">
         <v>103</v>
       </c>
+      <c r="B111">
+        <v>44260</v>
+      </c>
       <c r="C111">
         <v>5600</v>
       </c>
@@ -5738,6 +6676,9 @@
       <c r="A112">
         <v>104</v>
       </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
       <c r="C112">
         <v>5600</v>
       </c>
@@ -5749,6 +6690,9 @@
       <c r="A113">
         <v>105</v>
       </c>
+      <c r="B113">
+        <v>44250</v>
+      </c>
       <c r="C113">
         <v>5320</v>
       </c>
@@ -5760,6 +6704,9 @@
       <c r="A114">
         <v>106</v>
       </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
       <c r="C114">
         <v>5600</v>
       </c>
@@ -5771,6 +6718,9 @@
       <c r="A115">
         <v>107</v>
       </c>
+      <c r="B115">
+        <v>44260</v>
+      </c>
       <c r="C115">
         <v>5600</v>
       </c>
@@ -5782,6 +6732,9 @@
       <c r="A116">
         <v>108</v>
       </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
       <c r="C116">
         <v>5600</v>
       </c>
@@ -5793,6 +6746,9 @@
       <c r="A117">
         <v>109</v>
       </c>
+      <c r="B117">
+        <v>44250</v>
+      </c>
       <c r="C117">
         <v>5600</v>
       </c>
@@ -5804,6 +6760,9 @@
       <c r="A118">
         <v>110</v>
       </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
       <c r="C118">
         <v>5600</v>
       </c>
@@ -5815,6 +6774,9 @@
       <c r="A119">
         <v>111</v>
       </c>
+      <c r="B119">
+        <v>44260</v>
+      </c>
       <c r="C119">
         <v>5544</v>
       </c>
@@ -5826,6 +6788,9 @@
       <c r="A120">
         <v>112</v>
       </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
       <c r="C120">
         <v>5376</v>
       </c>
@@ -5837,6 +6802,9 @@
       <c r="A121">
         <v>113</v>
       </c>
+      <c r="B121">
+        <v>44100</v>
+      </c>
       <c r="C121">
         <v>5600</v>
       </c>
@@ -5848,6 +6816,9 @@
       <c r="A122">
         <v>114</v>
       </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
       <c r="C122">
         <v>5600</v>
       </c>
@@ -5859,6 +6830,9 @@
       <c r="A123">
         <v>115</v>
       </c>
+      <c r="B123">
+        <v>44560</v>
+      </c>
       <c r="C123">
         <v>5600</v>
       </c>
@@ -5870,6 +6844,9 @@
       <c r="A124">
         <v>116</v>
       </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
       <c r="C124">
         <v>5600</v>
       </c>
@@ -5881,6 +6858,9 @@
       <c r="A125">
         <v>117</v>
       </c>
+      <c r="B125">
+        <v>44100</v>
+      </c>
       <c r="C125">
         <v>5320</v>
       </c>
@@ -5892,6 +6872,9 @@
       <c r="A126">
         <v>118</v>
       </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
       <c r="C126">
         <v>5600</v>
       </c>
@@ -5903,6 +6886,9 @@
       <c r="A127">
         <v>119</v>
       </c>
+      <c r="B127">
+        <v>44110</v>
+      </c>
       <c r="C127">
         <v>5600</v>
       </c>
@@ -5914,6 +6900,9 @@
       <c r="A128">
         <v>120</v>
       </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
       <c r="C128">
         <v>5600</v>
       </c>
@@ -5925,6 +6914,9 @@
       <c r="A129">
         <v>121</v>
       </c>
+      <c r="B129">
+        <v>44250</v>
+      </c>
       <c r="C129">
         <v>5600</v>
       </c>
@@ -5936,6 +6928,9 @@
       <c r="A130">
         <v>122</v>
       </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
       <c r="C130">
         <v>5600</v>
       </c>
@@ -5947,6 +6942,9 @@
       <c r="A131">
         <v>123</v>
       </c>
+      <c r="B131">
+        <v>44110</v>
+      </c>
       <c r="C131">
         <v>5544</v>
       </c>
@@ -5958,6 +6956,9 @@
       <c r="A132">
         <v>124</v>
       </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
       <c r="C132">
         <v>5488</v>
       </c>
@@ -5966,83 +6967,296 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>44100</v>
+      </c>
       <c r="C133">
         <v>5488</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>0</v>
+      </c>
       <c r="C134">
         <v>5600</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>43960</v>
+      </c>
       <c r="C135">
         <v>5600</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>0</v>
+      </c>
       <c r="C136">
         <v>5600</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>44250</v>
+      </c>
       <c r="C137">
         <v>5600</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>0</v>
+      </c>
       <c r="C138">
         <v>5600</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>44410</v>
+      </c>
       <c r="C139">
         <v>5432</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>0</v>
+      </c>
       <c r="C140">
         <v>5768</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>44100</v>
+      </c>
       <c r="C141">
         <v>5600</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>0</v>
+      </c>
       <c r="C142">
         <v>5488</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>44110</v>
+      </c>
       <c r="C143">
         <v>5544</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>0</v>
+      </c>
       <c r="C144">
         <v>5488</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>43950</v>
+      </c>
       <c r="C145">
         <v>5600</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>0</v>
+      </c>
       <c r="C146">
         <v>5600</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>44110</v>
+      </c>
       <c r="C147">
         <v>5600</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>0</v>
+      </c>
       <c r="C148">
         <v>5488</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>46530</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>44250</v>
       </c>
     </row>
   </sheetData>
@@ -6056,10 +7270,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2434C9-9FEE-4B74-A6E8-22FF2ED6C4F5}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6069,17 +7283,22 @@
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -6089,38 +7308,47 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-4</v>
       </c>
@@ -6135,7 +7363,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-3</v>
       </c>
@@ -6150,7 +7378,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2</v>
       </c>
@@ -6165,7 +7393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1</v>
       </c>
@@ -6180,7 +7408,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -6195,7 +7423,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6210,7 +7438,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6225,7 +7453,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8146,8 +9374,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charz\Documents\Unity\GTRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C404BB1F-F0C5-4759-BF3A-AEBCB11E75A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4231766-0A06-4100-A3E4-298937011EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,12 +559,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4336,7 +4335,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Frames Per Second</a:t>
+              <a:t>Frames per Second</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4404,10 +4403,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Spawning Tests'!$Q$4:$Q$104</c:f>
+              <c:f>'Spawning Tests'!$Q$4:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4710,16 +4709,58 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Spawning Tests'!$R$4:$R$104</c:f>
+              <c:f>'Spawning Tests'!$R$4:$R$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>264</c:v>
                 </c:pt>
@@ -5022,6 +5063,48 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5061,10 +5144,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Spawning Tests'!$Q$4:$Q$104</c:f>
+              <c:f>'Spawning Tests'!$Q$4:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5367,16 +5450,58 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Spawning Tests'!$S$4:$S$104</c:f>
+              <c:f>'Spawning Tests'!$S$4:$S$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>280</c:v>
                 </c:pt>
@@ -5678,6 +5803,48 @@
                   <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
@@ -5718,10 +5885,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Spawning Tests'!$Q$4:$Q$104</c:f>
+              <c:f>'Spawning Tests'!$Q$4:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6024,16 +6191,58 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Spawning Tests'!$T$4:$T$104</c:f>
+              <c:f>'Spawning Tests'!$T$4:$T$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -6335,6 +6544,48 @@
                   <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
@@ -6469,6 +6720,7 @@
         <c:axId val="1813335904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="240"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6767,10 +7019,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Spawning Tests'!$L$4:$L$104</c:f>
+              <c:f>'Spawning Tests'!$L$4:$L$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7073,16 +7325,58 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Spawning Tests'!$M$4:$M$104</c:f>
+              <c:f>'Spawning Tests'!$M$4:$M$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7385,6 +7679,48 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>108742</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>115704</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>111060</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>117616</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>112256</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>118736</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>113348</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>119856</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>114412</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>120784</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>114980</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>115196</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>121504</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>115652</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>121984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7424,10 +7760,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Spawning Tests'!$L$4:$L$104</c:f>
+              <c:f>'Spawning Tests'!$L$4:$L$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7730,16 +8066,58 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Spawning Tests'!$N$4:$N$104</c:f>
+              <c:f>'Spawning Tests'!$N$4:$N$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8042,6 +8420,48 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>848285</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>906559</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>870058</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>876144</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>886882</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>884726</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>889954</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>896582</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>901486</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>898526</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>904660</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>902866</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>898684</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>903622</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>900606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8081,10 +8501,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Spawning Tests'!$L$4:$L$104</c:f>
+              <c:f>'Spawning Tests'!$L$4:$L$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8387,16 +8807,58 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Spawning Tests'!$O$4:$O$104</c:f>
+              <c:f>'Spawning Tests'!$O$4:$O$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8699,6 +9161,48 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>67782</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>68404</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>68680</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>68690</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>68680</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>68690</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>68680</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>68690</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>68680</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>68690</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>68690</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>68690</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>68680</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>72114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>68680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10772,15 +11276,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>709612</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13855,7 +14359,7 @@
   <dimension ref="A1:T191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13977,10 +14481,10 @@
       <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" t="s">
         <v>10</v>
       </c>
       <c r="Q3" t="s">
@@ -13989,10 +14493,10 @@
       <c r="R3" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -14007,7 +14511,7 @@
         <v>839</v>
       </c>
       <c r="D4">
-        <f>C4-C3</f>
+        <f t="shared" ref="D4:D35" si="0">C4-C3</f>
         <v>264</v>
       </c>
       <c r="E4">
@@ -14027,7 +14531,7 @@
         <v>574</v>
       </c>
       <c r="J4">
-        <f>I4-I3</f>
+        <f t="shared" ref="J4:J35" si="1">I4-I3</f>
         <v>291</v>
       </c>
       <c r="L4">
@@ -14069,7 +14573,7 @@
         <v>1121</v>
       </c>
       <c r="D5">
-        <f>C5-C4</f>
+        <f t="shared" si="0"/>
         <v>282</v>
       </c>
       <c r="E5">
@@ -14079,7 +14583,7 @@
         <v>530</v>
       </c>
       <c r="G5">
-        <f>F5-F4</f>
+        <f t="shared" ref="G5:G36" si="2">F5-F4</f>
         <v>250</v>
       </c>
       <c r="H5">
@@ -14089,7 +14593,7 @@
         <v>822</v>
       </c>
       <c r="J5">
-        <f>I5-I4</f>
+        <f t="shared" si="1"/>
         <v>248</v>
       </c>
       <c r="L5">
@@ -14108,15 +14612,15 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:S68" si="0">D5</f>
+        <f t="shared" ref="R5:R68" si="3">D5</f>
         <v>282</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S68" si="1">G5</f>
+        <f t="shared" ref="S5:S68" si="4">G5</f>
         <v>250</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T68" si="2">J5</f>
+        <f t="shared" ref="T5:T68" si="5">J5</f>
         <v>248</v>
       </c>
     </row>
@@ -14131,7 +14635,7 @@
         <v>1413</v>
       </c>
       <c r="D6">
-        <f>C6-C5</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E6">
@@ -14141,7 +14645,7 @@
         <v>821</v>
       </c>
       <c r="G6">
-        <f>F6-F5</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H6">
@@ -14151,7 +14655,7 @@
         <v>1113</v>
       </c>
       <c r="J6">
-        <f>I6-I5</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L6">
@@ -14170,15 +14674,15 @@
         <v>2</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -14193,7 +14697,7 @@
         <v>1705</v>
       </c>
       <c r="D7">
-        <f>C7-C6</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E7">
@@ -14203,7 +14707,7 @@
         <v>1112</v>
       </c>
       <c r="G7">
-        <f>F7-F6</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H7">
@@ -14213,7 +14717,7 @@
         <v>1405</v>
       </c>
       <c r="J7">
-        <f>I7-I6</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="L7">
@@ -14232,15 +14736,15 @@
         <v>3</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
     </row>
@@ -14255,7 +14759,7 @@
         <v>1997</v>
       </c>
       <c r="D8">
-        <f>C8-C7</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E8">
@@ -14265,7 +14769,7 @@
         <v>1404</v>
       </c>
       <c r="G8">
-        <f>F8-F7</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="H8">
@@ -14275,7 +14779,7 @@
         <v>1696</v>
       </c>
       <c r="J8">
-        <f>I8-I7</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L8">
@@ -14294,15 +14798,15 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -14317,7 +14821,7 @@
         <v>2290</v>
       </c>
       <c r="D9">
-        <f>C9-C8</f>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="E9">
@@ -14327,7 +14831,7 @@
         <v>1695</v>
       </c>
       <c r="G9">
-        <f>F9-F8</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H9">
@@ -14337,7 +14841,7 @@
         <v>1979</v>
       </c>
       <c r="J9">
-        <f>I9-I8</f>
+        <f t="shared" si="1"/>
         <v>283</v>
       </c>
       <c r="L9">
@@ -14356,15 +14860,15 @@
         <v>5</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>283</v>
       </c>
     </row>
@@ -14379,7 +14883,7 @@
         <v>2582</v>
       </c>
       <c r="D10">
-        <f>C10-C9</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E10">
@@ -14389,7 +14893,7 @@
         <v>1973</v>
       </c>
       <c r="G10">
-        <f>F10-F9</f>
+        <f t="shared" si="2"/>
         <v>278</v>
       </c>
       <c r="H10">
@@ -14399,7 +14903,7 @@
         <v>2266</v>
       </c>
       <c r="J10">
-        <f>I10-I9</f>
+        <f t="shared" si="1"/>
         <v>287</v>
       </c>
       <c r="L10">
@@ -14418,15 +14922,15 @@
         <v>6</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>287</v>
       </c>
     </row>
@@ -14441,7 +14945,7 @@
         <v>2874</v>
       </c>
       <c r="D11">
-        <f>C11-C10</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E11">
@@ -14451,7 +14955,7 @@
         <v>2264</v>
       </c>
       <c r="G11">
-        <f>F11-F10</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H11">
@@ -14461,7 +14965,7 @@
         <v>2556</v>
       </c>
       <c r="J11">
-        <f>I11-I10</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="L11">
@@ -14480,15 +14984,15 @@
         <v>7</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -14503,7 +15007,7 @@
         <v>3166</v>
       </c>
       <c r="D12">
-        <f>C12-C11</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E12">
@@ -14513,7 +15017,7 @@
         <v>2554</v>
       </c>
       <c r="G12">
-        <f>F12-F11</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H12">
@@ -14523,7 +15027,7 @@
         <v>2846</v>
       </c>
       <c r="J12">
-        <f>I12-I11</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="L12">
@@ -14542,15 +15046,15 @@
         <v>8</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -14565,7 +15069,7 @@
         <v>3458</v>
       </c>
       <c r="D13">
-        <f>C13-C12</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E13">
@@ -14575,7 +15079,7 @@
         <v>2843</v>
       </c>
       <c r="G13">
-        <f>F13-F12</f>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="H13">
@@ -14585,7 +15089,7 @@
         <v>3124</v>
       </c>
       <c r="J13">
-        <f>I13-I12</f>
+        <f t="shared" si="1"/>
         <v>278</v>
       </c>
       <c r="L13">
@@ -14604,15 +15108,15 @@
         <v>9</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>278</v>
       </c>
     </row>
@@ -14627,7 +15131,7 @@
         <v>3751</v>
       </c>
       <c r="D14">
-        <f>C14-C13</f>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="E14">
@@ -14637,7 +15141,7 @@
         <v>3134</v>
       </c>
       <c r="G14">
-        <f>F14-F13</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H14">
@@ -14647,7 +15151,7 @@
         <v>3414</v>
       </c>
       <c r="J14">
-        <f>I14-I13</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="L14">
@@ -14666,15 +15170,15 @@
         <v>10</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -14689,7 +15193,7 @@
         <v>4045</v>
       </c>
       <c r="D15">
-        <f>C15-C14</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="E15">
@@ -14699,7 +15203,7 @@
         <v>3411</v>
       </c>
       <c r="G15">
-        <f>F15-F14</f>
+        <f t="shared" si="2"/>
         <v>277</v>
       </c>
       <c r="H15">
@@ -14709,7 +15213,7 @@
         <v>3705</v>
       </c>
       <c r="J15">
-        <f>I15-I14</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L15">
@@ -14728,15 +15232,15 @@
         <v>11</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>294</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>277</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -14751,7 +15255,7 @@
         <v>4337</v>
       </c>
       <c r="D16">
-        <f>C16-C15</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E16">
@@ -14761,7 +15265,7 @@
         <v>3702</v>
       </c>
       <c r="G16">
-        <f>F16-F15</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H16">
@@ -14771,7 +15275,7 @@
         <v>3996</v>
       </c>
       <c r="J16">
-        <f>I16-I15</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L16">
@@ -14790,15 +15294,15 @@
         <v>12</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -14813,7 +15317,7 @@
         <v>4630</v>
       </c>
       <c r="D17">
-        <f>C17-C16</f>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="E17">
@@ -14823,7 +15327,7 @@
         <v>3992</v>
       </c>
       <c r="G17">
-        <f>F17-F16</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H17">
@@ -14833,7 +15337,7 @@
         <v>4287</v>
       </c>
       <c r="J17">
-        <f>I17-I16</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L17">
@@ -14852,15 +15356,15 @@
         <v>13</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -14875,7 +15379,7 @@
         <v>4922</v>
       </c>
       <c r="D18">
-        <f>C18-C17</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E18">
@@ -14885,7 +15389,7 @@
         <v>4282</v>
       </c>
       <c r="G18">
-        <f>F18-F17</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H18">
@@ -14895,7 +15399,7 @@
         <v>4579</v>
       </c>
       <c r="J18">
-        <f>I18-I17</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="L18">
@@ -14914,15 +15418,15 @@
         <v>14</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
     </row>
@@ -14937,7 +15441,7 @@
         <v>5214</v>
       </c>
       <c r="D19">
-        <f>C19-C18</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E19">
@@ -14947,7 +15451,7 @@
         <v>4573</v>
       </c>
       <c r="G19">
-        <f>F19-F18</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H19">
@@ -14957,7 +15461,7 @@
         <v>4870</v>
       </c>
       <c r="J19">
-        <f>I19-I18</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L19">
@@ -14976,15 +15480,15 @@
         <v>15</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -14999,7 +15503,7 @@
         <v>5506</v>
       </c>
       <c r="D20">
-        <f>C20-C19</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E20">
@@ -15009,7 +15513,7 @@
         <v>4864</v>
       </c>
       <c r="G20">
-        <f>F20-F19</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H20">
@@ -15019,7 +15523,7 @@
         <v>5161</v>
       </c>
       <c r="J20">
-        <f>I20-I19</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L20">
@@ -15038,15 +15542,15 @@
         <v>16</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -15061,7 +15565,7 @@
         <v>5799</v>
       </c>
       <c r="D21">
-        <f>C21-C20</f>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="E21">
@@ -15071,7 +15575,7 @@
         <v>5154</v>
       </c>
       <c r="G21">
-        <f>F21-F20</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H21">
@@ -15081,7 +15585,7 @@
         <v>5452</v>
       </c>
       <c r="J21">
-        <f>I21-I20</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L21">
@@ -15100,15 +15604,15 @@
         <v>17</v>
       </c>
       <c r="R21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -15123,7 +15627,7 @@
         <v>6092</v>
       </c>
       <c r="D22">
-        <f>C22-C21</f>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="E22">
@@ -15133,7 +15637,7 @@
         <v>5444</v>
       </c>
       <c r="G22">
-        <f>F22-F21</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H22">
@@ -15143,7 +15647,7 @@
         <v>5741</v>
       </c>
       <c r="J22">
-        <f>I22-I21</f>
+        <f t="shared" si="1"/>
         <v>289</v>
       </c>
       <c r="L22">
@@ -15162,15 +15666,15 @@
         <v>18</v>
       </c>
       <c r="R22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>289</v>
       </c>
     </row>
@@ -15185,7 +15689,7 @@
         <v>6386</v>
       </c>
       <c r="D23">
-        <f>C23-C22</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="E23">
@@ -15195,7 +15699,7 @@
         <v>5734</v>
       </c>
       <c r="G23">
-        <f>F23-F22</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H23">
@@ -15205,7 +15709,7 @@
         <v>6032</v>
       </c>
       <c r="J23">
-        <f>I23-I22</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L23">
@@ -15224,15 +15728,15 @@
         <v>19</v>
       </c>
       <c r="R23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>294</v>
       </c>
       <c r="S23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -15247,7 +15751,7 @@
         <v>6679</v>
       </c>
       <c r="D24">
-        <f>C24-C23</f>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="E24">
@@ -15257,7 +15761,7 @@
         <v>6025</v>
       </c>
       <c r="G24">
-        <f>F24-F23</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H24">
@@ -15267,7 +15771,7 @@
         <v>6323</v>
       </c>
       <c r="J24">
-        <f>I24-I23</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L24">
@@ -15286,15 +15790,15 @@
         <v>20</v>
       </c>
       <c r="R24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -15309,7 +15813,7 @@
         <v>6971</v>
       </c>
       <c r="D25">
-        <f>C25-C24</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E25">
@@ -15319,7 +15823,7 @@
         <v>6315</v>
       </c>
       <c r="G25">
-        <f>F25-F24</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H25">
@@ -15329,7 +15833,7 @@
         <v>6614</v>
       </c>
       <c r="J25">
-        <f>I25-I24</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L25">
@@ -15348,15 +15852,15 @@
         <v>21</v>
       </c>
       <c r="R25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -15371,7 +15875,7 @@
         <v>7264</v>
       </c>
       <c r="D26">
-        <f>C26-C25</f>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="E26">
@@ -15381,7 +15885,7 @@
         <v>6606</v>
       </c>
       <c r="G26">
-        <f>F26-F25</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H26">
@@ -15391,7 +15895,7 @@
         <v>6905</v>
       </c>
       <c r="J26">
-        <f>I26-I25</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L26">
@@ -15410,15 +15914,15 @@
         <v>22</v>
       </c>
       <c r="R26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -15433,7 +15937,7 @@
         <v>7557</v>
       </c>
       <c r="D27">
-        <f>C27-C26</f>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="E27">
@@ -15443,7 +15947,7 @@
         <v>6896</v>
       </c>
       <c r="G27">
-        <f>F27-F26</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H27">
@@ -15453,7 +15957,7 @@
         <v>7196</v>
       </c>
       <c r="J27">
-        <f>I27-I26</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L27">
@@ -15472,15 +15976,15 @@
         <v>23</v>
       </c>
       <c r="R27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -15495,7 +15999,7 @@
         <v>7850</v>
       </c>
       <c r="D28">
-        <f>C28-C27</f>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="E28">
@@ -15505,7 +16009,7 @@
         <v>7187</v>
       </c>
       <c r="G28">
-        <f>F28-F27</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H28">
@@ -15515,7 +16019,7 @@
         <v>7486</v>
       </c>
       <c r="J28">
-        <f>I28-I27</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="L28">
@@ -15534,15 +16038,15 @@
         <v>24</v>
       </c>
       <c r="R28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -15557,7 +16061,7 @@
         <v>8141</v>
       </c>
       <c r="D29">
-        <f>C29-C28</f>
+        <f t="shared" si="0"/>
         <v>291</v>
       </c>
       <c r="E29">
@@ -15567,7 +16071,7 @@
         <v>7477</v>
       </c>
       <c r="G29">
-        <f>F29-F28</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H29">
@@ -15577,7 +16081,7 @@
         <v>7776</v>
       </c>
       <c r="J29">
-        <f>I29-I28</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="L29">
@@ -15596,15 +16100,15 @@
         <v>25</v>
       </c>
       <c r="R29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>291</v>
       </c>
       <c r="S29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -15619,7 +16123,7 @@
         <v>8433</v>
       </c>
       <c r="D30">
-        <f>C30-C29</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E30">
@@ -15629,7 +16133,7 @@
         <v>7767</v>
       </c>
       <c r="G30">
-        <f>F30-F29</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H30">
@@ -15639,7 +16143,7 @@
         <v>8066</v>
       </c>
       <c r="J30">
-        <f>I30-I29</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="L30">
@@ -15658,15 +16162,15 @@
         <v>26</v>
       </c>
       <c r="R30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -15681,7 +16185,7 @@
         <v>8726</v>
       </c>
       <c r="D31">
-        <f>C31-C30</f>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="E31">
@@ -15691,7 +16195,7 @@
         <v>8058</v>
       </c>
       <c r="G31">
-        <f>F31-F30</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H31">
@@ -15701,7 +16205,7 @@
         <v>8357</v>
       </c>
       <c r="J31">
-        <f>I31-I30</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L31">
@@ -15720,15 +16224,15 @@
         <v>27</v>
       </c>
       <c r="R31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -15743,7 +16247,7 @@
         <v>9019</v>
       </c>
       <c r="D32">
-        <f>C32-C31</f>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="E32">
@@ -15753,7 +16257,7 @@
         <v>8349</v>
       </c>
       <c r="G32">
-        <f>F32-F31</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H32">
@@ -15763,7 +16267,7 @@
         <v>8649</v>
       </c>
       <c r="J32">
-        <f>I32-I31</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="L32">
@@ -15782,15 +16286,15 @@
         <v>28</v>
       </c>
       <c r="R32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
     </row>
@@ -15805,7 +16309,7 @@
         <v>9311</v>
       </c>
       <c r="D33">
-        <f>C33-C32</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E33">
@@ -15815,7 +16319,7 @@
         <v>8639</v>
       </c>
       <c r="G33">
-        <f>F33-F32</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H33">
@@ -15825,7 +16329,7 @@
         <v>8939</v>
       </c>
       <c r="J33">
-        <f>I33-I32</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="L33">
@@ -15844,15 +16348,15 @@
         <v>29</v>
       </c>
       <c r="R33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -15867,7 +16371,7 @@
         <v>9605</v>
       </c>
       <c r="D34">
-        <f>C34-C33</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="E34">
@@ -15877,7 +16381,7 @@
         <v>8929</v>
       </c>
       <c r="G34">
-        <f>F34-F33</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H34">
@@ -15887,7 +16391,7 @@
         <v>9230</v>
       </c>
       <c r="J34">
-        <f>I34-I33</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L34">
@@ -15906,15 +16410,15 @@
         <v>30</v>
       </c>
       <c r="R34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>294</v>
       </c>
       <c r="S34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -15929,7 +16433,7 @@
         <v>9897</v>
       </c>
       <c r="D35">
-        <f>C35-C34</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="E35">
@@ -15939,7 +16443,7 @@
         <v>9220</v>
       </c>
       <c r="G35">
-        <f>F35-F34</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="H35">
@@ -15949,7 +16453,7 @@
         <v>9521</v>
       </c>
       <c r="J35">
-        <f>I35-I34</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="L35">
@@ -15968,15 +16472,15 @@
         <v>31</v>
       </c>
       <c r="R35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -15991,7 +16495,7 @@
         <v>10189</v>
       </c>
       <c r="D36">
-        <f>C36-C35</f>
+        <f t="shared" ref="D36:D66" si="6">C36-C35</f>
         <v>292</v>
       </c>
       <c r="E36">
@@ -16001,7 +16505,7 @@
         <v>9510</v>
       </c>
       <c r="G36">
-        <f>F36-F35</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="H36">
@@ -16011,7 +16515,7 @@
         <v>9812</v>
       </c>
       <c r="J36">
-        <f>I36-I35</f>
+        <f t="shared" ref="J36:J67" si="7">I36-I35</f>
         <v>291</v>
       </c>
       <c r="L36">
@@ -16030,15 +16534,15 @@
         <v>32</v>
       </c>
       <c r="R36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -16053,7 +16557,7 @@
         <v>10480</v>
       </c>
       <c r="D37">
-        <f>C37-C36</f>
+        <f t="shared" si="6"/>
         <v>291</v>
       </c>
       <c r="E37">
@@ -16063,7 +16567,7 @@
         <v>9799</v>
       </c>
       <c r="G37">
-        <f>F37-F36</f>
+        <f t="shared" ref="G37:G67" si="8">F37-F36</f>
         <v>289</v>
       </c>
       <c r="H37">
@@ -16073,7 +16577,7 @@
         <v>10104</v>
       </c>
       <c r="J37">
-        <f>I37-I36</f>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="L37">
@@ -16092,15 +16596,15 @@
         <v>33</v>
       </c>
       <c r="R37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>291</v>
       </c>
       <c r="S37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="T37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
     </row>
@@ -16115,7 +16619,7 @@
         <v>10773</v>
       </c>
       <c r="D38">
-        <f>C38-C37</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E38">
@@ -16125,7 +16629,7 @@
         <v>10089</v>
       </c>
       <c r="G38">
-        <f>F38-F37</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H38">
@@ -16135,7 +16639,7 @@
         <v>10395</v>
       </c>
       <c r="J38">
-        <f>I38-I37</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L38">
@@ -16154,15 +16658,15 @@
         <v>34</v>
       </c>
       <c r="R38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -16177,7 +16681,7 @@
         <v>11066</v>
       </c>
       <c r="D39">
-        <f>C39-C38</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E39">
@@ -16187,7 +16691,7 @@
         <v>10380</v>
       </c>
       <c r="G39">
-        <f>F39-F38</f>
+        <f t="shared" si="8"/>
         <v>291</v>
       </c>
       <c r="H39">
@@ -16197,7 +16701,7 @@
         <v>10686</v>
       </c>
       <c r="J39">
-        <f>I39-I38</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L39">
@@ -16216,15 +16720,15 @@
         <v>35</v>
       </c>
       <c r="R39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -16239,7 +16743,7 @@
         <v>11359</v>
       </c>
       <c r="D40">
-        <f>C40-C39</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E40">
@@ -16249,7 +16753,7 @@
         <v>10670</v>
       </c>
       <c r="G40">
-        <f>F40-F39</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H40">
@@ -16259,7 +16763,7 @@
         <v>10977</v>
       </c>
       <c r="J40">
-        <f>I40-I39</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L40">
@@ -16278,15 +16782,15 @@
         <v>36</v>
       </c>
       <c r="R40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -16301,7 +16805,7 @@
         <v>11652</v>
       </c>
       <c r="D41">
-        <f>C41-C40</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E41">
@@ -16311,7 +16815,7 @@
         <v>10961</v>
       </c>
       <c r="G41">
-        <f>F41-F40</f>
+        <f t="shared" si="8"/>
         <v>291</v>
       </c>
       <c r="H41">
@@ -16321,7 +16825,7 @@
         <v>11267</v>
       </c>
       <c r="J41">
-        <f>I41-I40</f>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="L41">
@@ -16340,15 +16844,15 @@
         <v>37</v>
       </c>
       <c r="R41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -16363,7 +16867,7 @@
         <v>11945</v>
       </c>
       <c r="D42">
-        <f>C42-C41</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E42">
@@ -16373,7 +16877,7 @@
         <v>11251</v>
       </c>
       <c r="G42">
-        <f>F42-F41</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H42">
@@ -16383,7 +16887,7 @@
         <v>11558</v>
       </c>
       <c r="J42">
-        <f>I42-I41</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L42">
@@ -16402,15 +16906,15 @@
         <v>38</v>
       </c>
       <c r="R42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -16425,7 +16929,7 @@
         <v>12238</v>
       </c>
       <c r="D43">
-        <f>C43-C42</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E43">
@@ -16435,7 +16939,7 @@
         <v>11541</v>
       </c>
       <c r="G43">
-        <f>F43-F42</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H43">
@@ -16445,7 +16949,7 @@
         <v>11849</v>
       </c>
       <c r="J43">
-        <f>I43-I42</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L43">
@@ -16464,15 +16968,15 @@
         <v>39</v>
       </c>
       <c r="R43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -16487,7 +16991,7 @@
         <v>12531</v>
       </c>
       <c r="D44">
-        <f>C44-C43</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E44">
@@ -16497,7 +17001,7 @@
         <v>11831</v>
       </c>
       <c r="G44">
-        <f>F44-F43</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H44">
@@ -16507,7 +17011,7 @@
         <v>12140</v>
       </c>
       <c r="J44">
-        <f>I44-I43</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L44">
@@ -16526,15 +17030,15 @@
         <v>40</v>
       </c>
       <c r="R44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -16549,7 +17053,7 @@
         <v>12823</v>
       </c>
       <c r="D45">
-        <f>C45-C44</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="E45">
@@ -16559,7 +17063,7 @@
         <v>12121</v>
       </c>
       <c r="G45">
-        <f>F45-F44</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H45">
@@ -16569,7 +17073,7 @@
         <v>12432</v>
       </c>
       <c r="J45">
-        <f>I45-I44</f>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="L45">
@@ -16588,15 +17092,15 @@
         <v>41</v>
       </c>
       <c r="R45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
     </row>
@@ -16611,7 +17115,7 @@
         <v>13114</v>
       </c>
       <c r="D46">
-        <f>C46-C45</f>
+        <f t="shared" si="6"/>
         <v>291</v>
       </c>
       <c r="E46">
@@ -16621,7 +17125,7 @@
         <v>12411</v>
       </c>
       <c r="G46">
-        <f>F46-F45</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H46">
@@ -16631,7 +17135,7 @@
         <v>12723</v>
       </c>
       <c r="J46">
-        <f>I46-I45</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L46">
@@ -16650,15 +17154,15 @@
         <v>42</v>
       </c>
       <c r="R46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>291</v>
       </c>
       <c r="S46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -16673,7 +17177,7 @@
         <v>13406</v>
       </c>
       <c r="D47">
-        <f>C47-C46</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="E47">
@@ -16683,7 +17187,7 @@
         <v>12702</v>
       </c>
       <c r="G47">
-        <f>F47-F46</f>
+        <f t="shared" si="8"/>
         <v>291</v>
       </c>
       <c r="H47">
@@ -16693,7 +17197,7 @@
         <v>13015</v>
       </c>
       <c r="J47">
-        <f>I47-I46</f>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="L47">
@@ -16712,15 +17216,15 @@
         <v>43</v>
       </c>
       <c r="R47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
     </row>
@@ -16735,7 +17239,7 @@
         <v>13698</v>
       </c>
       <c r="D48">
-        <f>C48-C47</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="E48">
@@ -16745,7 +17249,7 @@
         <v>12992</v>
       </c>
       <c r="G48">
-        <f>F48-F47</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H48">
@@ -16755,7 +17259,7 @@
         <v>13306</v>
       </c>
       <c r="J48">
-        <f>I48-I47</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L48">
@@ -16774,15 +17278,15 @@
         <v>44</v>
       </c>
       <c r="R48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -16797,7 +17301,7 @@
         <v>13991</v>
       </c>
       <c r="D49">
-        <f>C49-C48</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E49">
@@ -16807,7 +17311,7 @@
         <v>13283</v>
       </c>
       <c r="G49">
-        <f>F49-F48</f>
+        <f t="shared" si="8"/>
         <v>291</v>
       </c>
       <c r="H49">
@@ -16817,7 +17321,7 @@
         <v>13598</v>
       </c>
       <c r="J49">
-        <f>I49-I48</f>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="L49">
@@ -16836,15 +17340,15 @@
         <v>45</v>
       </c>
       <c r="R49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
     </row>
@@ -16859,7 +17363,7 @@
         <v>14284</v>
       </c>
       <c r="D50">
-        <f>C50-C49</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E50">
@@ -16869,7 +17373,7 @@
         <v>13572</v>
       </c>
       <c r="G50">
-        <f>F50-F49</f>
+        <f t="shared" si="8"/>
         <v>289</v>
       </c>
       <c r="H50">
@@ -16879,7 +17383,7 @@
         <v>13891</v>
       </c>
       <c r="J50">
-        <f>I50-I49</f>
+        <f t="shared" si="7"/>
         <v>293</v>
       </c>
       <c r="L50">
@@ -16898,15 +17402,15 @@
         <v>46</v>
       </c>
       <c r="R50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="T50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>293</v>
       </c>
     </row>
@@ -16921,7 +17425,7 @@
         <v>14577</v>
       </c>
       <c r="D51">
-        <f>C51-C50</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E51">
@@ -16931,7 +17435,7 @@
         <v>13862</v>
       </c>
       <c r="G51">
-        <f>F51-F50</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H51">
@@ -16941,7 +17445,7 @@
         <v>14182</v>
       </c>
       <c r="J51">
-        <f>I51-I50</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L51">
@@ -16960,15 +17464,15 @@
         <v>47</v>
       </c>
       <c r="R51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -16983,7 +17487,7 @@
         <v>14871</v>
       </c>
       <c r="D52">
-        <f>C52-C51</f>
+        <f t="shared" si="6"/>
         <v>294</v>
       </c>
       <c r="E52">
@@ -16993,7 +17497,7 @@
         <v>14153</v>
       </c>
       <c r="G52">
-        <f>F52-F51</f>
+        <f t="shared" si="8"/>
         <v>291</v>
       </c>
       <c r="H52">
@@ -17003,7 +17507,7 @@
         <v>14474</v>
       </c>
       <c r="J52">
-        <f>I52-I51</f>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="L52">
@@ -17022,15 +17526,15 @@
         <v>48</v>
       </c>
       <c r="R52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>294</v>
       </c>
       <c r="S52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
     </row>
@@ -17045,7 +17549,7 @@
         <v>15163</v>
       </c>
       <c r="D53">
-        <f>C53-C52</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="E53">
@@ -17055,7 +17559,7 @@
         <v>14443</v>
       </c>
       <c r="G53">
-        <f>F53-F52</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H53">
@@ -17065,7 +17569,7 @@
         <v>14765</v>
       </c>
       <c r="J53">
-        <f>I53-I52</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L53">
@@ -17084,15 +17588,15 @@
         <v>49</v>
       </c>
       <c r="R53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -17107,7 +17611,7 @@
         <v>15455</v>
       </c>
       <c r="D54">
-        <f>C54-C53</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="E54">
@@ -17117,7 +17621,7 @@
         <v>14732</v>
       </c>
       <c r="G54">
-        <f>F54-F53</f>
+        <f t="shared" si="8"/>
         <v>289</v>
       </c>
       <c r="H54">
@@ -17127,7 +17631,7 @@
         <v>15057</v>
       </c>
       <c r="J54">
-        <f>I54-I53</f>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="L54">
@@ -17146,15 +17650,15 @@
         <v>50</v>
       </c>
       <c r="R54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="T54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
     </row>
@@ -17169,7 +17673,7 @@
         <v>15746</v>
       </c>
       <c r="D55">
-        <f>C55-C54</f>
+        <f t="shared" si="6"/>
         <v>291</v>
       </c>
       <c r="E55">
@@ -17179,7 +17683,7 @@
         <v>15022</v>
       </c>
       <c r="G55">
-        <f>F55-F54</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H55">
@@ -17189,7 +17693,7 @@
         <v>15330</v>
       </c>
       <c r="J55">
-        <f>I55-I54</f>
+        <f t="shared" si="7"/>
         <v>273</v>
       </c>
       <c r="L55">
@@ -17208,15 +17712,15 @@
         <v>51</v>
       </c>
       <c r="R55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>291</v>
       </c>
       <c r="S55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>273</v>
       </c>
     </row>
@@ -17231,7 +17735,7 @@
         <v>16037</v>
       </c>
       <c r="D56">
-        <f>C56-C55</f>
+        <f t="shared" si="6"/>
         <v>291</v>
       </c>
       <c r="E56">
@@ -17241,7 +17745,7 @@
         <v>15313</v>
       </c>
       <c r="G56">
-        <f>F56-F55</f>
+        <f t="shared" si="8"/>
         <v>291</v>
       </c>
       <c r="H56">
@@ -17251,7 +17755,7 @@
         <v>15621</v>
       </c>
       <c r="J56">
-        <f>I56-I55</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L56">
@@ -17270,15 +17774,15 @@
         <v>52</v>
       </c>
       <c r="R56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>291</v>
       </c>
       <c r="S56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -17293,7 +17797,7 @@
         <v>16328</v>
       </c>
       <c r="D57">
-        <f>C57-C56</f>
+        <f t="shared" si="6"/>
         <v>291</v>
       </c>
       <c r="E57">
@@ -17303,7 +17807,7 @@
         <v>15603</v>
       </c>
       <c r="G57">
-        <f>F57-F56</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H57">
@@ -17313,7 +17817,7 @@
         <v>15911</v>
       </c>
       <c r="J57">
-        <f>I57-I56</f>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="L57">
@@ -17332,15 +17836,15 @@
         <v>53</v>
       </c>
       <c r="R57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>291</v>
       </c>
       <c r="S57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -17355,7 +17859,7 @@
         <v>16620</v>
       </c>
       <c r="D58">
-        <f>C58-C57</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="E58">
@@ -17365,7 +17869,7 @@
         <v>15893</v>
       </c>
       <c r="G58">
-        <f>F58-F57</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H58">
@@ -17375,7 +17879,7 @@
         <v>16201</v>
       </c>
       <c r="J58">
-        <f>I58-I57</f>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="L58">
@@ -17394,15 +17898,15 @@
         <v>54</v>
       </c>
       <c r="R58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -17417,7 +17921,7 @@
         <v>16912</v>
       </c>
       <c r="D59">
-        <f>C59-C58</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="E59">
@@ -17427,7 +17931,7 @@
         <v>16184</v>
       </c>
       <c r="G59">
-        <f>F59-F58</f>
+        <f t="shared" si="8"/>
         <v>291</v>
       </c>
       <c r="H59">
@@ -17437,7 +17941,7 @@
         <v>16490</v>
       </c>
       <c r="J59">
-        <f>I59-I58</f>
+        <f t="shared" si="7"/>
         <v>289</v>
       </c>
       <c r="L59">
@@ -17456,15 +17960,15 @@
         <v>55</v>
       </c>
       <c r="R59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>289</v>
       </c>
     </row>
@@ -17479,7 +17983,7 @@
         <v>17205</v>
       </c>
       <c r="D60">
-        <f>C60-C59</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E60">
@@ -17489,7 +17993,7 @@
         <v>16474</v>
       </c>
       <c r="G60">
-        <f>F60-F59</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H60">
@@ -17499,7 +18003,7 @@
         <v>16766</v>
       </c>
       <c r="J60">
-        <f>I60-I59</f>
+        <f t="shared" si="7"/>
         <v>276</v>
       </c>
       <c r="L60">
@@ -17518,15 +18022,15 @@
         <v>56</v>
       </c>
       <c r="R60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>276</v>
       </c>
     </row>
@@ -17541,7 +18045,7 @@
         <v>17497</v>
       </c>
       <c r="D61">
-        <f>C61-C60</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="E61">
@@ -17551,7 +18055,7 @@
         <v>16763</v>
       </c>
       <c r="G61">
-        <f>F61-F60</f>
+        <f t="shared" si="8"/>
         <v>289</v>
       </c>
       <c r="H61">
@@ -17561,7 +18065,7 @@
         <v>17056</v>
       </c>
       <c r="J61">
-        <f>I61-I60</f>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="L61">
@@ -17580,15 +18084,15 @@
         <v>57</v>
       </c>
       <c r="R61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="T61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -17603,7 +18107,7 @@
         <v>17789</v>
       </c>
       <c r="D62">
-        <f>C62-C61</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="E62">
@@ -17613,7 +18117,7 @@
         <v>17052</v>
       </c>
       <c r="G62">
-        <f>F62-F61</f>
+        <f t="shared" si="8"/>
         <v>289</v>
       </c>
       <c r="H62">
@@ -17623,7 +18127,7 @@
         <v>17346</v>
       </c>
       <c r="J62">
-        <f>I62-I61</f>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="L62">
@@ -17642,15 +18146,15 @@
         <v>58</v>
       </c>
       <c r="R62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="T62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -17665,7 +18169,7 @@
         <v>18081</v>
       </c>
       <c r="D63">
-        <f>C63-C62</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="E63">
@@ -17675,7 +18179,7 @@
         <v>17341</v>
       </c>
       <c r="G63">
-        <f>F63-F62</f>
+        <f t="shared" si="8"/>
         <v>289</v>
       </c>
       <c r="H63">
@@ -17685,7 +18189,7 @@
         <v>17637</v>
       </c>
       <c r="J63">
-        <f>I63-I62</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L63">
@@ -17704,15 +18208,15 @@
         <v>59</v>
       </c>
       <c r="R63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="T63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -17727,7 +18231,7 @@
         <v>18372</v>
       </c>
       <c r="D64">
-        <f>C64-C63</f>
+        <f t="shared" si="6"/>
         <v>291</v>
       </c>
       <c r="E64">
@@ -17737,7 +18241,7 @@
         <v>17631</v>
       </c>
       <c r="G64">
-        <f>F64-F63</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H64">
@@ -17747,7 +18251,7 @@
         <v>17928</v>
       </c>
       <c r="J64">
-        <f>I64-I63</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L64">
@@ -17766,15 +18270,15 @@
         <v>60</v>
       </c>
       <c r="R64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>291</v>
       </c>
       <c r="S64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -17789,7 +18293,7 @@
         <v>18665</v>
       </c>
       <c r="D65">
-        <f>C65-C64</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="E65">
@@ -17799,7 +18303,7 @@
         <v>17922</v>
       </c>
       <c r="G65">
-        <f>F65-F64</f>
+        <f t="shared" si="8"/>
         <v>291</v>
       </c>
       <c r="H65">
@@ -17809,7 +18313,7 @@
         <v>18219</v>
       </c>
       <c r="J65">
-        <f>I65-I64</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L65">
@@ -17828,15 +18332,15 @@
         <v>61</v>
       </c>
       <c r="R65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="S65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="T65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -17851,7 +18355,7 @@
         <v>18956</v>
       </c>
       <c r="D66">
-        <f>C66-C65</f>
+        <f t="shared" si="6"/>
         <v>291</v>
       </c>
       <c r="E66">
@@ -17861,7 +18365,7 @@
         <v>18212</v>
       </c>
       <c r="G66">
-        <f>F66-F65</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H66">
@@ -17871,7 +18375,7 @@
         <v>18510</v>
       </c>
       <c r="J66">
-        <f>I66-I65</f>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="L66">
@@ -17890,15 +18394,15 @@
         <v>62</v>
       </c>
       <c r="R66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>291</v>
       </c>
       <c r="S66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -17913,7 +18417,7 @@
         <v>19248</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">C67-C66</f>
+        <f t="shared" ref="D67:D130" si="9">C67-C66</f>
         <v>292</v>
       </c>
       <c r="E67">
@@ -17923,7 +18427,7 @@
         <v>18502</v>
       </c>
       <c r="G67">
-        <f>F67-F66</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="H67">
@@ -17933,7 +18437,7 @@
         <v>18800</v>
       </c>
       <c r="J67">
-        <f>I67-I66</f>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="L67">
@@ -17952,15 +18456,15 @@
         <v>63</v>
       </c>
       <c r="R67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="S67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -17975,54 +18479,54 @@
         <v>19540</v>
       </c>
       <c r="D68">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="E68">
+        <v>529019</v>
+      </c>
+      <c r="F68">
+        <v>18792</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G131" si="10">F68-F67</f>
+        <v>290</v>
+      </c>
+      <c r="H68">
+        <v>43168</v>
+      </c>
+      <c r="I68">
+        <v>19091</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J131" si="11">I68-I67</f>
+        <v>291</v>
+      </c>
+      <c r="L68">
+        <v>64</v>
+      </c>
+      <c r="M68">
+        <v>67018</v>
+      </c>
+      <c r="N68">
+        <v>529019</v>
+      </c>
+      <c r="O68">
+        <v>43168</v>
+      </c>
+      <c r="Q68">
+        <v>64</v>
+      </c>
+      <c r="R68">
         <f t="shared" si="3"/>
         <v>292</v>
       </c>
-      <c r="E68">
-        <v>529019</v>
-      </c>
-      <c r="F68">
-        <v>18792</v>
-      </c>
-      <c r="G68">
-        <f t="shared" ref="G68:G131" si="4">F68-F67</f>
-        <v>290</v>
-      </c>
-      <c r="H68">
-        <v>43168</v>
-      </c>
-      <c r="I68">
-        <v>19091</v>
-      </c>
-      <c r="J68">
-        <f t="shared" ref="J68:J131" si="5">I68-I67</f>
-        <v>291</v>
-      </c>
-      <c r="L68">
-        <v>64</v>
-      </c>
-      <c r="M68">
-        <v>67018</v>
-      </c>
-      <c r="N68">
-        <v>529019</v>
-      </c>
-      <c r="O68">
-        <v>43168</v>
-      </c>
-      <c r="Q68">
-        <v>64</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="0"/>
-        <v>292</v>
-      </c>
       <c r="S68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="T68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
     </row>
@@ -18037,7 +18541,7 @@
         <v>19834</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>294</v>
       </c>
       <c r="E69">
@@ -18047,7 +18551,7 @@
         <v>19083</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="H69">
@@ -18057,7 +18561,7 @@
         <v>19382</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L69">
@@ -18076,15 +18580,15 @@
         <v>65</v>
       </c>
       <c r="R69">
-        <f t="shared" ref="R69:S104" si="6">D69</f>
+        <f t="shared" ref="R69:R118" si="12">D69</f>
         <v>294</v>
       </c>
       <c r="S69">
-        <f t="shared" ref="S69:S104" si="7">G69</f>
+        <f t="shared" ref="S69:S104" si="13">G69</f>
         <v>291</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T104" si="8">J69</f>
+        <f t="shared" ref="T69:T104" si="14">J69</f>
         <v>291</v>
       </c>
     </row>
@@ -18099,7 +18603,7 @@
         <v>20126</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E70">
@@ -18109,7 +18613,7 @@
         <v>19373</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H70">
@@ -18119,7 +18623,7 @@
         <v>19673</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L70">
@@ -18138,15 +18642,15 @@
         <v>66</v>
       </c>
       <c r="R70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -18161,7 +18665,7 @@
         <v>20419</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E71">
@@ -18171,7 +18675,7 @@
         <v>19662</v>
       </c>
       <c r="G71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="H71">
@@ -18181,7 +18685,7 @@
         <v>19963</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L71">
@@ -18200,15 +18704,15 @@
         <v>67</v>
       </c>
       <c r="R71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="S71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>289</v>
       </c>
       <c r="T71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -18223,7 +18727,7 @@
         <v>20712</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E72">
@@ -18233,7 +18737,7 @@
         <v>19953</v>
       </c>
       <c r="G72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="H72">
@@ -18243,7 +18747,7 @@
         <v>20253</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L72">
@@ -18262,15 +18766,15 @@
         <v>68</v>
       </c>
       <c r="R72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="S72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>291</v>
       </c>
       <c r="T72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -18285,7 +18789,7 @@
         <v>21005</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E73">
@@ -18295,7 +18799,7 @@
         <v>20244</v>
       </c>
       <c r="G73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="H73">
@@ -18305,7 +18809,7 @@
         <v>20543</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L73">
@@ -18324,15 +18828,15 @@
         <v>69</v>
       </c>
       <c r="R73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="S73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>291</v>
       </c>
       <c r="T73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -18347,7 +18851,7 @@
         <v>21297</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E74">
@@ -18357,7 +18861,7 @@
         <v>20534</v>
       </c>
       <c r="G74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H74">
@@ -18367,7 +18871,7 @@
         <v>20834</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L74">
@@ -18386,15 +18890,15 @@
         <v>70</v>
       </c>
       <c r="R74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -18409,7 +18913,7 @@
         <v>21590</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E75">
@@ -18419,7 +18923,7 @@
         <v>20825</v>
       </c>
       <c r="G75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="H75">
@@ -18429,7 +18933,7 @@
         <v>21123</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>289</v>
       </c>
       <c r="L75">
@@ -18448,15 +18952,15 @@
         <v>71</v>
       </c>
       <c r="R75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="S75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>291</v>
       </c>
       <c r="T75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>289</v>
       </c>
     </row>
@@ -18471,7 +18975,7 @@
         <v>21879</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>289</v>
       </c>
       <c r="E76">
@@ -18481,7 +18985,7 @@
         <v>21114</v>
       </c>
       <c r="G76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="H76">
@@ -18491,7 +18995,7 @@
         <v>21413</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L76">
@@ -18510,15 +19014,15 @@
         <v>72</v>
       </c>
       <c r="R76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>289</v>
       </c>
       <c r="S76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>289</v>
       </c>
       <c r="T76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -18533,7 +19037,7 @@
         <v>22172</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E77">
@@ -18543,7 +19047,7 @@
         <v>21404</v>
       </c>
       <c r="G77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H77">
@@ -18553,7 +19057,7 @@
         <v>21703</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L77">
@@ -18572,15 +19076,15 @@
         <v>73</v>
       </c>
       <c r="R77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="S77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -18595,7 +19099,7 @@
         <v>22466</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>294</v>
       </c>
       <c r="E78">
@@ -18605,7 +19109,7 @@
         <v>21694</v>
       </c>
       <c r="G78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H78">
@@ -18615,7 +19119,7 @@
         <v>21994</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L78">
@@ -18634,15 +19138,15 @@
         <v>74</v>
       </c>
       <c r="R78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>294</v>
       </c>
       <c r="S78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -18657,7 +19161,7 @@
         <v>22758</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E79">
@@ -18667,7 +19171,7 @@
         <v>21984</v>
       </c>
       <c r="G79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H79">
@@ -18677,7 +19181,7 @@
         <v>22285</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L79">
@@ -18696,15 +19200,15 @@
         <v>75</v>
       </c>
       <c r="R79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -18719,7 +19223,7 @@
         <v>23050</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E80">
@@ -18729,7 +19233,7 @@
         <v>22274</v>
       </c>
       <c r="G80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H80">
@@ -18739,7 +19243,7 @@
         <v>22576</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L80">
@@ -18758,15 +19262,15 @@
         <v>76</v>
       </c>
       <c r="R80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -18781,7 +19285,7 @@
         <v>23341</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E81">
@@ -18791,7 +19295,7 @@
         <v>22564</v>
       </c>
       <c r="G81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H81">
@@ -18801,7 +19305,7 @@
         <v>22866</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L81">
@@ -18820,15 +19324,15 @@
         <v>77</v>
       </c>
       <c r="R81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>291</v>
       </c>
       <c r="S81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -18843,7 +19347,7 @@
         <v>23633</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E82">
@@ -18853,7 +19357,7 @@
         <v>22854</v>
       </c>
       <c r="G82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H82">
@@ -18863,7 +19367,7 @@
         <v>23156</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L82">
@@ -18882,15 +19386,15 @@
         <v>78</v>
       </c>
       <c r="R82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -18905,7 +19409,7 @@
         <v>23926</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E83">
@@ -18915,7 +19419,7 @@
         <v>23143</v>
       </c>
       <c r="G83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="H83">
@@ -18925,7 +19429,7 @@
         <v>23446</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L83">
@@ -18944,15 +19448,15 @@
         <v>79</v>
       </c>
       <c r="R83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="S83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>289</v>
       </c>
       <c r="T83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -18967,7 +19471,7 @@
         <v>24218</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E84">
@@ -18977,7 +19481,7 @@
         <v>23433</v>
       </c>
       <c r="G84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H84">
@@ -18987,7 +19491,7 @@
         <v>23737</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L84">
@@ -19006,15 +19510,15 @@
         <v>80</v>
       </c>
       <c r="R84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -19029,7 +19533,7 @@
         <v>24510</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E85">
@@ -19039,7 +19543,7 @@
         <v>23723</v>
       </c>
       <c r="G85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H85">
@@ -19049,7 +19553,7 @@
         <v>24027</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L85">
@@ -19068,15 +19572,15 @@
         <v>81</v>
       </c>
       <c r="R85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -19091,7 +19595,7 @@
         <v>24803</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E86">
@@ -19101,7 +19605,7 @@
         <v>24013</v>
       </c>
       <c r="G86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H86">
@@ -19111,7 +19615,7 @@
         <v>24317</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L86">
@@ -19130,15 +19634,15 @@
         <v>82</v>
       </c>
       <c r="R86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="S86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -19153,7 +19657,7 @@
         <v>25095</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E87">
@@ -19163,7 +19667,7 @@
         <v>24302</v>
       </c>
       <c r="G87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="H87">
@@ -19173,7 +19677,7 @@
         <v>24608</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L87">
@@ -19192,15 +19696,15 @@
         <v>83</v>
       </c>
       <c r="R87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>289</v>
       </c>
       <c r="T87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -19215,7 +19719,7 @@
         <v>25387</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E88">
@@ -19225,7 +19729,7 @@
         <v>24592</v>
       </c>
       <c r="G88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H88">
@@ -19235,7 +19739,7 @@
         <v>24899</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L88">
@@ -19254,15 +19758,15 @@
         <v>84</v>
       </c>
       <c r="R88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -19277,7 +19781,7 @@
         <v>25681</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>294</v>
       </c>
       <c r="E89">
@@ -19287,7 +19791,7 @@
         <v>24882</v>
       </c>
       <c r="G89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H89">
@@ -19297,7 +19801,7 @@
         <v>25189</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L89">
@@ -19316,15 +19820,15 @@
         <v>85</v>
       </c>
       <c r="R89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>294</v>
       </c>
       <c r="S89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -19339,7 +19843,7 @@
         <v>25973</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E90">
@@ -19349,7 +19853,7 @@
         <v>25171</v>
       </c>
       <c r="G90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="H90">
@@ -19359,7 +19863,7 @@
         <v>25480</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L90">
@@ -19378,15 +19882,15 @@
         <v>86</v>
       </c>
       <c r="R90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>289</v>
       </c>
       <c r="T90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -19401,7 +19905,7 @@
         <v>26264</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E91">
@@ -19411,7 +19915,7 @@
         <v>25462</v>
       </c>
       <c r="G91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="H91">
@@ -19421,7 +19925,7 @@
         <v>25771</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L91">
@@ -19440,15 +19944,15 @@
         <v>87</v>
       </c>
       <c r="R91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>291</v>
       </c>
       <c r="S91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>291</v>
       </c>
       <c r="T91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -19463,7 +19967,7 @@
         <v>26555</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E92">
@@ -19473,7 +19977,7 @@
         <v>25752</v>
       </c>
       <c r="G92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H92">
@@ -19483,7 +19987,7 @@
         <v>26061</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L92">
@@ -19502,15 +20006,15 @@
         <v>88</v>
       </c>
       <c r="R92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>291</v>
       </c>
       <c r="S92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -19525,7 +20029,7 @@
         <v>26847</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E93">
@@ -19535,7 +20039,7 @@
         <v>26042</v>
       </c>
       <c r="G93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H93">
@@ -19545,7 +20049,7 @@
         <v>26352</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L93">
@@ -19564,15 +20068,15 @@
         <v>89</v>
       </c>
       <c r="R93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -19587,7 +20091,7 @@
         <v>27139</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E94">
@@ -19597,7 +20101,7 @@
         <v>26332</v>
       </c>
       <c r="G94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H94">
@@ -19607,7 +20111,7 @@
         <v>26642</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L94">
@@ -19626,15 +20130,15 @@
         <v>90</v>
       </c>
       <c r="R94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -19649,7 +20153,7 @@
         <v>27430</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E95">
@@ -19659,7 +20163,7 @@
         <v>26622</v>
       </c>
       <c r="G95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H95">
@@ -19669,7 +20173,7 @@
         <v>26933</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L95">
@@ -19688,15 +20192,15 @@
         <v>91</v>
       </c>
       <c r="R95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>291</v>
       </c>
       <c r="S95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -19711,7 +20215,7 @@
         <v>27723</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E96">
@@ -19721,7 +20225,7 @@
         <v>26913</v>
       </c>
       <c r="G96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="H96">
@@ -19731,7 +20235,7 @@
         <v>27224</v>
       </c>
       <c r="J96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L96">
@@ -19750,15 +20254,15 @@
         <v>92</v>
       </c>
       <c r="R96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="S96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>291</v>
       </c>
       <c r="T96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -19773,7 +20277,7 @@
         <v>28015</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E97">
@@ -19783,7 +20287,7 @@
         <v>27203</v>
       </c>
       <c r="G97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H97">
@@ -19793,7 +20297,7 @@
         <v>27514</v>
       </c>
       <c r="J97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L97">
@@ -19812,15 +20316,15 @@
         <v>93</v>
       </c>
       <c r="R97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -19835,7 +20339,7 @@
         <v>28306</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E98">
@@ -19845,7 +20349,7 @@
         <v>27492</v>
       </c>
       <c r="G98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="H98">
@@ -19855,7 +20359,7 @@
         <v>27805</v>
       </c>
       <c r="J98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L98">
@@ -19874,15 +20378,15 @@
         <v>94</v>
       </c>
       <c r="R98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>291</v>
       </c>
       <c r="S98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>289</v>
       </c>
       <c r="T98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -19897,7 +20401,7 @@
         <v>28598</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E99">
@@ -19907,7 +20411,7 @@
         <v>27782</v>
       </c>
       <c r="G99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H99">
@@ -19917,7 +20421,7 @@
         <v>28096</v>
       </c>
       <c r="J99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L99">
@@ -19936,15 +20440,15 @@
         <v>95</v>
       </c>
       <c r="R99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -19959,7 +20463,7 @@
         <v>28889</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E100">
@@ -19969,7 +20473,7 @@
         <v>28072</v>
       </c>
       <c r="G100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H100">
@@ -19979,7 +20483,7 @@
         <v>28387</v>
       </c>
       <c r="J100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
       <c r="L100">
@@ -19998,15 +20502,15 @@
         <v>96</v>
       </c>
       <c r="R100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>291</v>
       </c>
       <c r="S100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -20021,7 +20525,7 @@
         <v>29182</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E101">
@@ -20031,7 +20535,7 @@
         <v>28363</v>
       </c>
       <c r="G101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="H101">
@@ -20041,7 +20545,7 @@
         <v>28677</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L101">
@@ -20060,15 +20564,15 @@
         <v>97</v>
       </c>
       <c r="R101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="S101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>291</v>
       </c>
       <c r="T101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -20083,7 +20587,7 @@
         <v>29476</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>294</v>
       </c>
       <c r="E102">
@@ -20093,7 +20597,7 @@
         <v>28653</v>
       </c>
       <c r="G102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H102">
@@ -20103,7 +20607,7 @@
         <v>28967</v>
       </c>
       <c r="J102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L102">
@@ -20122,15 +20626,15 @@
         <v>98</v>
       </c>
       <c r="R102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>294</v>
       </c>
       <c r="S102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -20145,7 +20649,7 @@
         <v>29768</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E103">
@@ -20155,7 +20659,7 @@
         <v>28942</v>
       </c>
       <c r="G103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="H103">
@@ -20165,7 +20669,7 @@
         <v>29256</v>
       </c>
       <c r="J103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>289</v>
       </c>
       <c r="L103">
@@ -20184,15 +20688,15 @@
         <v>99</v>
       </c>
       <c r="R103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>289</v>
       </c>
       <c r="T103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>289</v>
       </c>
     </row>
@@ -20207,7 +20711,7 @@
         <v>30060</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E104">
@@ -20217,7 +20721,7 @@
         <v>29232</v>
       </c>
       <c r="G104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H104">
@@ -20227,7 +20731,7 @@
         <v>29546</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
       <c r="L104">
@@ -20246,15 +20750,15 @@
         <v>100</v>
       </c>
       <c r="R104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="S104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="T104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -20269,7 +20773,7 @@
         <v>30351</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E105">
@@ -20279,7 +20783,7 @@
         <v>29522</v>
       </c>
       <c r="G105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H105">
@@ -20289,7 +20793,34 @@
         <v>29836</v>
       </c>
       <c r="J105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
+        <v>290</v>
+      </c>
+      <c r="L105">
+        <v>101</v>
+      </c>
+      <c r="M105">
+        <v>115704</v>
+      </c>
+      <c r="N105">
+        <v>906559</v>
+      </c>
+      <c r="O105">
+        <v>68404</v>
+      </c>
+      <c r="Q105">
+        <v>101</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="12"/>
+        <v>291</v>
+      </c>
+      <c r="S105">
+        <f t="shared" ref="S105:S118" si="15">G105</f>
+        <v>290</v>
+      </c>
+      <c r="T105">
+        <f t="shared" ref="T105:T118" si="16">J105</f>
         <v>290</v>
       </c>
     </row>
@@ -20304,7 +20835,7 @@
         <v>30643</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E106">
@@ -20314,7 +20845,7 @@
         <v>29813</v>
       </c>
       <c r="G106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="H106">
@@ -20324,7 +20855,34 @@
         <v>30127</v>
       </c>
       <c r="J106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
+        <v>291</v>
+      </c>
+      <c r="L106">
+        <v>102</v>
+      </c>
+      <c r="M106">
+        <v>111060</v>
+      </c>
+      <c r="N106">
+        <v>870058</v>
+      </c>
+      <c r="O106">
+        <v>68680</v>
+      </c>
+      <c r="Q106">
+        <v>102</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="15"/>
+        <v>291</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="16"/>
         <v>291</v>
       </c>
     </row>
@@ -20339,7 +20897,7 @@
         <v>30935</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E107">
@@ -20349,7 +20907,7 @@
         <v>30103</v>
       </c>
       <c r="G107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H107">
@@ -20359,7 +20917,34 @@
         <v>30418</v>
       </c>
       <c r="J107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
+        <v>291</v>
+      </c>
+      <c r="L107">
+        <v>103</v>
+      </c>
+      <c r="M107">
+        <v>117616</v>
+      </c>
+      <c r="N107">
+        <v>876144</v>
+      </c>
+      <c r="O107">
+        <v>68690</v>
+      </c>
+      <c r="Q107">
+        <v>103</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="15"/>
+        <v>290</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="16"/>
         <v>291</v>
       </c>
     </row>
@@ -20374,7 +20959,7 @@
         <v>31226</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E108">
@@ -20384,7 +20969,7 @@
         <v>30393</v>
       </c>
       <c r="G108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H108">
@@ -20394,7 +20979,34 @@
         <v>30709</v>
       </c>
       <c r="J108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
+        <v>291</v>
+      </c>
+      <c r="L108">
+        <v>104</v>
+      </c>
+      <c r="M108">
+        <v>112256</v>
+      </c>
+      <c r="N108">
+        <v>886882</v>
+      </c>
+      <c r="O108">
+        <v>68680</v>
+      </c>
+      <c r="Q108">
+        <v>104</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="12"/>
+        <v>291</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="15"/>
+        <v>290</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="16"/>
         <v>291</v>
       </c>
     </row>
@@ -20409,7 +21021,7 @@
         <v>31518</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E109">
@@ -20419,7 +21031,7 @@
         <v>30682</v>
       </c>
       <c r="G109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="H109">
@@ -20429,7 +21041,34 @@
         <v>30999</v>
       </c>
       <c r="J109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
+        <v>290</v>
+      </c>
+      <c r="L109">
+        <v>105</v>
+      </c>
+      <c r="M109">
+        <v>118736</v>
+      </c>
+      <c r="N109">
+        <v>884726</v>
+      </c>
+      <c r="O109">
+        <v>68690</v>
+      </c>
+      <c r="Q109">
+        <v>105</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="15"/>
+        <v>289</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="16"/>
         <v>290</v>
       </c>
     </row>
@@ -20444,7 +21083,7 @@
         <v>31811</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E110">
@@ -20454,7 +21093,7 @@
         <v>30973</v>
       </c>
       <c r="G110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="H110">
@@ -20464,7 +21103,34 @@
         <v>31289</v>
       </c>
       <c r="J110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
+        <v>290</v>
+      </c>
+      <c r="L110">
+        <v>106</v>
+      </c>
+      <c r="M110">
+        <v>113348</v>
+      </c>
+      <c r="N110">
+        <v>889954</v>
+      </c>
+      <c r="O110">
+        <v>68680</v>
+      </c>
+      <c r="Q110">
+        <v>106</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="12"/>
+        <v>293</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="15"/>
+        <v>291</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="16"/>
         <v>290</v>
       </c>
     </row>
@@ -20479,7 +21145,7 @@
         <v>32103</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E111">
@@ -20489,7 +21155,7 @@
         <v>31264</v>
       </c>
       <c r="G111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="H111">
@@ -20499,7 +21165,34 @@
         <v>31578</v>
       </c>
       <c r="J111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
+        <v>289</v>
+      </c>
+      <c r="L111">
+        <v>107</v>
+      </c>
+      <c r="M111">
+        <v>119856</v>
+      </c>
+      <c r="N111">
+        <v>896582</v>
+      </c>
+      <c r="O111">
+        <v>68690</v>
+      </c>
+      <c r="Q111">
+        <v>107</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="15"/>
+        <v>291</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="16"/>
         <v>289</v>
       </c>
     </row>
@@ -20514,7 +21207,7 @@
         <v>32394</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E112">
@@ -20524,7 +21217,7 @@
         <v>31553</v>
       </c>
       <c r="G112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="H112">
@@ -20534,11 +21227,38 @@
         <v>31868</v>
       </c>
       <c r="J112">
-        <f t="shared" si="5"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>290</v>
+      </c>
+      <c r="L112">
+        <v>108</v>
+      </c>
+      <c r="M112">
+        <v>114412</v>
+      </c>
+      <c r="N112">
+        <v>901486</v>
+      </c>
+      <c r="O112">
+        <v>68680</v>
+      </c>
+      <c r="Q112">
+        <v>108</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="12"/>
+        <v>291</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="15"/>
+        <v>289</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="16"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>109</v>
       </c>
@@ -20549,7 +21269,7 @@
         <v>32686</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E113">
@@ -20559,7 +21279,7 @@
         <v>31842</v>
       </c>
       <c r="G113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="H113">
@@ -20569,11 +21289,38 @@
         <v>32159</v>
       </c>
       <c r="J113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>109</v>
+      </c>
+      <c r="M113">
+        <v>120784</v>
+      </c>
+      <c r="N113">
+        <v>898526</v>
+      </c>
+      <c r="O113">
+        <v>68690</v>
+      </c>
+      <c r="Q113">
+        <v>109</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="15"/>
+        <v>289</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="16"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>110</v>
       </c>
@@ -20584,7 +21331,7 @@
         <v>32977</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E114">
@@ -20594,7 +21341,7 @@
         <v>32132</v>
       </c>
       <c r="G114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H114">
@@ -20604,11 +21351,38 @@
         <v>32449</v>
       </c>
       <c r="J114">
-        <f t="shared" si="5"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>290</v>
+      </c>
+      <c r="L114">
+        <v>110</v>
+      </c>
+      <c r="M114">
+        <v>114980</v>
+      </c>
+      <c r="N114">
+        <v>904660</v>
+      </c>
+      <c r="O114">
+        <v>68690</v>
+      </c>
+      <c r="Q114">
+        <v>110</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="12"/>
+        <v>291</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="15"/>
+        <v>290</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="16"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>111</v>
       </c>
@@ -20619,7 +21393,7 @@
         <v>33269</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E115">
@@ -20629,7 +21403,7 @@
         <v>32421</v>
       </c>
       <c r="G115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="H115">
@@ -20639,11 +21413,38 @@
         <v>32739</v>
       </c>
       <c r="J115">
-        <f t="shared" si="5"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>290</v>
+      </c>
+      <c r="L115">
+        <v>111</v>
+      </c>
+      <c r="M115">
+        <v>115196</v>
+      </c>
+      <c r="N115">
+        <v>902866</v>
+      </c>
+      <c r="O115">
+        <v>68690</v>
+      </c>
+      <c r="Q115">
+        <v>111</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="15"/>
+        <v>289</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="16"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>112</v>
       </c>
@@ -20654,7 +21455,7 @@
         <v>33561</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E116">
@@ -20664,7 +21465,7 @@
         <v>32711</v>
       </c>
       <c r="G116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H116">
@@ -20674,11 +21475,38 @@
         <v>33028</v>
       </c>
       <c r="J116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>289</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>112</v>
+      </c>
+      <c r="M116">
+        <v>121504</v>
+      </c>
+      <c r="N116">
+        <v>898684</v>
+      </c>
+      <c r="O116">
+        <v>68680</v>
+      </c>
+      <c r="Q116">
+        <v>112</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="15"/>
+        <v>290</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="16"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>113</v>
       </c>
@@ -20689,7 +21517,7 @@
         <v>33854</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E117">
@@ -20699,7 +21527,7 @@
         <v>33001</v>
       </c>
       <c r="G117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H117">
@@ -20709,11 +21537,38 @@
         <v>33320</v>
       </c>
       <c r="J117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>113</v>
+      </c>
+      <c r="M117">
+        <v>115652</v>
+      </c>
+      <c r="N117">
+        <v>903622</v>
+      </c>
+      <c r="O117">
+        <v>72114</v>
+      </c>
+      <c r="Q117">
+        <v>113</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="12"/>
+        <v>293</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="15"/>
+        <v>290</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="16"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>114</v>
       </c>
@@ -20724,7 +21579,7 @@
         <v>34144</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>290</v>
       </c>
       <c r="E118">
@@ -20734,7 +21589,7 @@
         <v>33291</v>
       </c>
       <c r="G118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H118">
@@ -20744,11 +21599,38 @@
         <v>33610</v>
       </c>
       <c r="J118">
-        <f t="shared" si="5"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>290</v>
+      </c>
+      <c r="L118">
+        <v>114</v>
+      </c>
+      <c r="M118">
+        <v>121984</v>
+      </c>
+      <c r="N118">
+        <v>900606</v>
+      </c>
+      <c r="O118">
+        <v>68680</v>
+      </c>
+      <c r="Q118">
+        <v>114</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="12"/>
+        <v>290</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="15"/>
+        <v>290</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="16"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>115</v>
       </c>
@@ -20759,7 +21641,7 @@
         <v>34435</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E119">
@@ -20769,7 +21651,7 @@
         <v>33581</v>
       </c>
       <c r="G119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="H119">
@@ -20779,11 +21661,11 @@
         <v>34105</v>
       </c>
       <c r="J119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>495</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>116</v>
       </c>
@@ -20794,7 +21676,7 @@
         <v>34727</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E120">
@@ -20804,15 +21686,15 @@
         <v>33871</v>
       </c>
       <c r="G120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="J120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-34105</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>117</v>
       </c>
@@ -20823,7 +21705,7 @@
         <v>35018</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E121">
@@ -20833,15 +21715,15 @@
         <v>34161</v>
       </c>
       <c r="G121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="J121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>118</v>
       </c>
@@ -20852,7 +21734,7 @@
         <v>35311</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E122">
@@ -20862,15 +21744,15 @@
         <v>34451</v>
       </c>
       <c r="G122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="J122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>119</v>
       </c>
@@ -20881,7 +21763,7 @@
         <v>35603</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E123">
@@ -20891,15 +21773,15 @@
         <v>34741</v>
       </c>
       <c r="G123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="J123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>120</v>
       </c>
@@ -20910,7 +21792,7 @@
         <v>35895</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E124">
@@ -20920,15 +21802,15 @@
         <v>35029</v>
       </c>
       <c r="G124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>288</v>
       </c>
       <c r="J124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>121</v>
       </c>
@@ -20939,7 +21821,7 @@
         <v>36187</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E125">
@@ -20949,15 +21831,15 @@
         <v>35319</v>
       </c>
       <c r="G125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="J125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>122</v>
       </c>
@@ -20968,7 +21850,7 @@
         <v>36479</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E126">
@@ -20978,15 +21860,15 @@
         <v>35609</v>
       </c>
       <c r="G126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="J126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>123</v>
       </c>
@@ -20997,7 +21879,7 @@
         <v>37054</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>575</v>
       </c>
       <c r="E127">
@@ -21007,15 +21889,15 @@
         <v>35898</v>
       </c>
       <c r="G127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="J127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>124</v>
       </c>
@@ -21026,7 +21908,7 @@
         <v>37346</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E128">
@@ -21036,11 +21918,11 @@
         <v>36188</v>
       </c>
       <c r="G128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="J128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -21055,7 +21937,7 @@
         <v>37639</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="E129">
@@ -21065,11 +21947,11 @@
         <v>36476</v>
       </c>
       <c r="G129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>288</v>
       </c>
       <c r="J129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -21084,7 +21966,7 @@
         <v>37931</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="E130">
@@ -21094,11 +21976,11 @@
         <v>36766</v>
       </c>
       <c r="G130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="J130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -21113,7 +21995,7 @@
         <v>38214</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131" si="9">C131-C130</f>
+        <f t="shared" ref="D131" si="17">C131-C130</f>
         <v>283</v>
       </c>
       <c r="E131">
@@ -21123,11 +22005,11 @@
         <v>37056</v>
       </c>
       <c r="G131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="J131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -21142,11 +22024,11 @@
         <v>37346</v>
       </c>
       <c r="G132">
-        <f t="shared" ref="G132:G191" si="10">F132-F131</f>
+        <f t="shared" ref="G132:G191" si="18">F132-F131</f>
         <v>290</v>
       </c>
       <c r="J132">
-        <f t="shared" ref="J132:J134" si="11">I132-I131</f>
+        <f t="shared" ref="J132:J134" si="19">I132-I131</f>
         <v>0</v>
       </c>
     </row>
@@ -21161,11 +22043,11 @@
         <v>37636</v>
       </c>
       <c r="G133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
       <c r="J133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21180,11 +22062,11 @@
         <v>37925</v>
       </c>
       <c r="G134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
       <c r="J134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21199,7 +22081,7 @@
         <v>38214</v>
       </c>
       <c r="G135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21214,7 +22096,7 @@
         <v>38504</v>
       </c>
       <c r="G136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21229,7 +22111,7 @@
         <v>38794</v>
       </c>
       <c r="G137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21244,7 +22126,7 @@
         <v>39084</v>
       </c>
       <c r="G138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21259,7 +22141,7 @@
         <v>39373</v>
       </c>
       <c r="G139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21274,7 +22156,7 @@
         <v>39662</v>
       </c>
       <c r="G140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21286,7 +22168,7 @@
         <v>39952</v>
       </c>
       <c r="G141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21298,7 +22180,7 @@
         <v>40241</v>
       </c>
       <c r="G142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21310,7 +22192,7 @@
         <v>40530</v>
       </c>
       <c r="G143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21322,7 +22204,7 @@
         <v>40821</v>
       </c>
       <c r="G144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>291</v>
       </c>
     </row>
@@ -21334,7 +22216,7 @@
         <v>41110</v>
       </c>
       <c r="G145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21346,7 +22228,7 @@
         <v>41399</v>
       </c>
       <c r="G146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21358,7 +22240,7 @@
         <v>41688</v>
       </c>
       <c r="G147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21370,7 +22252,7 @@
         <v>41978</v>
       </c>
       <c r="G148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21382,7 +22264,7 @@
         <v>42269</v>
       </c>
       <c r="G149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>291</v>
       </c>
     </row>
@@ -21394,7 +22276,7 @@
         <v>42558</v>
       </c>
       <c r="G150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21406,7 +22288,7 @@
         <v>42847</v>
       </c>
       <c r="G151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21418,7 +22300,7 @@
         <v>43136</v>
       </c>
       <c r="G152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21430,7 +22312,7 @@
         <v>43426</v>
       </c>
       <c r="G153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21442,7 +22324,7 @@
         <v>43717</v>
       </c>
       <c r="G154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>291</v>
       </c>
     </row>
@@ -21454,7 +22336,7 @@
         <v>44007</v>
       </c>
       <c r="G155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21466,7 +22348,7 @@
         <v>44296</v>
       </c>
       <c r="G156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21478,7 +22360,7 @@
         <v>44587</v>
       </c>
       <c r="G157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>291</v>
       </c>
     </row>
@@ -21490,7 +22372,7 @@
         <v>44876</v>
       </c>
       <c r="G158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21502,7 +22384,7 @@
         <v>45166</v>
       </c>
       <c r="G159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21514,7 +22396,7 @@
         <v>45454</v>
       </c>
       <c r="G160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>288</v>
       </c>
     </row>
@@ -21526,7 +22408,7 @@
         <v>45744</v>
       </c>
       <c r="G161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21538,7 +22420,7 @@
         <v>46033</v>
       </c>
       <c r="G162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21550,7 +22432,7 @@
         <v>46323</v>
       </c>
       <c r="G163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21562,7 +22444,7 @@
         <v>46612</v>
       </c>
       <c r="G164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21574,7 +22456,7 @@
         <v>46902</v>
       </c>
       <c r="G165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21586,7 +22468,7 @@
         <v>47191</v>
       </c>
       <c r="G166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21598,7 +22480,7 @@
         <v>47482</v>
       </c>
       <c r="G167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>291</v>
       </c>
     </row>
@@ -21610,7 +22492,7 @@
         <v>47772</v>
       </c>
       <c r="G168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21622,7 +22504,7 @@
         <v>48062</v>
       </c>
       <c r="G169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21634,7 +22516,7 @@
         <v>48352</v>
       </c>
       <c r="G170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21646,7 +22528,7 @@
         <v>48644</v>
       </c>
       <c r="G171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>292</v>
       </c>
     </row>
@@ -21658,7 +22540,7 @@
         <v>48934</v>
       </c>
       <c r="G172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21670,7 +22552,7 @@
         <v>49225</v>
       </c>
       <c r="G173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>291</v>
       </c>
     </row>
@@ -21682,7 +22564,7 @@
         <v>49515</v>
       </c>
       <c r="G174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21694,7 +22576,7 @@
         <v>49805</v>
       </c>
       <c r="G175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21706,7 +22588,7 @@
         <v>50094</v>
       </c>
       <c r="G176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21718,7 +22600,7 @@
         <v>50384</v>
       </c>
       <c r="G177">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21730,7 +22612,7 @@
         <v>50675</v>
       </c>
       <c r="G178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>291</v>
       </c>
     </row>
@@ -21742,7 +22624,7 @@
         <v>50965</v>
       </c>
       <c r="G179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21754,7 +22636,7 @@
         <v>51255</v>
       </c>
       <c r="G180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21766,7 +22648,7 @@
         <v>51544</v>
       </c>
       <c r="G181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21778,7 +22660,7 @@
         <v>51832</v>
       </c>
       <c r="G182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>288</v>
       </c>
     </row>
@@ -21790,7 +22672,7 @@
         <v>52122</v>
       </c>
       <c r="G183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21802,7 +22684,7 @@
         <v>52411</v>
       </c>
       <c r="G184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21814,7 +22696,7 @@
         <v>52701</v>
       </c>
       <c r="G185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21826,7 +22708,7 @@
         <v>52990</v>
       </c>
       <c r="G186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>289</v>
       </c>
     </row>
@@ -21838,7 +22720,7 @@
         <v>53280</v>
       </c>
       <c r="G187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21850,7 +22732,7 @@
         <v>53570</v>
       </c>
       <c r="G188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
     </row>
@@ -21862,7 +22744,7 @@
         <v>53861</v>
       </c>
       <c r="G189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>291</v>
       </c>
     </row>
@@ -21874,7 +22756,7 @@
         <v>54152</v>
       </c>
       <c r="G190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>291</v>
       </c>
     </row>
@@ -21886,7 +22768,7 @@
         <v>54678</v>
       </c>
       <c r="G191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>526</v>
       </c>
     </row>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charz\Documents\Unity\GTRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4231766-0A06-4100-A3E4-298937011EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CFDFA6-F8AB-499C-B12B-0F93F5A705F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bandwidth Tests" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Time (s)</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Frames per Second</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +401,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -559,11 +568,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11198,16 +11209,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11239,16 +11250,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11275,16 +11286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>709612</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11609,10 +11620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F100" sqref="A1:G100"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11622,9 +11633,13 @@
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11636,8 +11651,15 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -11653,8 +11675,23 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -11673,8 +11710,28 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f>AVERAGE(B3:B103)</f>
+        <v>5208.4257425742571</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:J3" si="0">AVERAGE(C3:C103)</f>
+        <v>5076.7227722772277</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>5410.4851485148511</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3" si="1">AVERAGE(E3:E103)</f>
+        <v>19057.108910891089</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(F3:F103)</f>
+        <v>3581.1188118811883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11694,7 +11751,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -11714,7 +11771,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -11734,7 +11791,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -11754,7 +11811,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -11774,7 +11831,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11794,7 +11851,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -11810,11 +11867,11 @@
       <c r="E10">
         <v>11238</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>3540</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -11830,15 +11887,15 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>3592</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>5600</v>
       </c>
       <c r="C12">
@@ -11854,7 +11911,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -11874,7 +11931,7 @@
         <v>3948</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -11894,7 +11951,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -11914,7 +11971,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -11927,7 +11984,7 @@
       <c r="D16">
         <v>4363</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>19464</v>
       </c>
       <c r="F16">
@@ -11984,7 +12041,7 @@
       <c r="C19">
         <v>4680</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>5172</v>
       </c>
       <c r="E19">
@@ -12021,7 +12078,7 @@
       <c r="B21">
         <v>5488</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>5160</v>
       </c>
       <c r="D21">
@@ -14346,8 +14403,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14358,8 +14416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2434C9-9FEE-4B74-A6E8-22FF2ED6C4F5}">
   <dimension ref="A1:T191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="X124" sqref="X124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14374,7 +14432,7 @@
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
@@ -21664,6 +21722,16 @@
         <f t="shared" si="11"/>
         <v>495</v>
       </c>
+      <c r="M119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="R119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -21693,6 +21761,24 @@
         <f t="shared" si="11"/>
         <v>-34105</v>
       </c>
+      <c r="M120" t="s">
+        <v>11</v>
+      </c>
+      <c r="N120" t="s">
+        <v>9</v>
+      </c>
+      <c r="O120" t="s">
+        <v>10</v>
+      </c>
+      <c r="R120" t="s">
+        <v>11</v>
+      </c>
+      <c r="S120" t="s">
+        <v>9</v>
+      </c>
+      <c r="T120" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -21722,6 +21808,30 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="M121">
+        <f>AVERAGE(M4:M118)</f>
+        <v>60282.034782608695</v>
+      </c>
+      <c r="N121">
+        <f>AVERAGE(N4:N118)</f>
+        <v>464629.70434782607</v>
+      </c>
+      <c r="O121">
+        <f>AVERAGE(O4:O118)</f>
+        <v>37971.82608695652</v>
+      </c>
+      <c r="R121">
+        <f>AVERAGE(R4:R118)</f>
+        <v>291.90434782608696</v>
+      </c>
+      <c r="S121">
+        <f>AVERAGE(S4:S118)</f>
+        <v>289.4869565217391</v>
+      </c>
+      <c r="T121">
+        <f>AVERAGE(T4:T118)</f>
+        <v>289.8</v>
+      </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -22773,7 +22883,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="R119:T119"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="B1:D1"/>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charz\Documents\Unity\GTRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CFDFA6-F8AB-499C-B12B-0F93F5A705F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C422E803-D588-42D1-981C-E4F5662A9BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,11 +570,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -716,17 +716,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Bandwidth Tests'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mirror Unreliable</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1365,6 +1354,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E6B5-4FCA-BAD2-AFE51F3DF3AB}"/>
             </c:ext>
@@ -1373,17 +1377,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Bandwidth Tests'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mirror Reliable</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2022,6 +2015,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E6B5-4FCA-BAD2-AFE51F3DF3AB}"/>
             </c:ext>
@@ -2030,17 +2038,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Bandwidth Tests'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bundled Optimised</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2679,6 +2676,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E6B5-4FCA-BAD2-AFE51F3DF3AB}"/>
             </c:ext>
@@ -2687,17 +2699,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Bandwidth Tests'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimised</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3336,6 +3337,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E6B5-4FCA-BAD2-AFE51F3DF3AB}"/>
             </c:ext>
@@ -3344,17 +3360,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Bandwidth Tests'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Basic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3993,6 +3998,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E6B5-4FCA-BAD2-AFE51F3DF3AB}"/>
             </c:ext>
@@ -4346,6 +4366,3703 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
+              <a:t>Bytes Read per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Second</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bandwidth Tests'!$A$3:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bandwidth Tests'!$E$3:$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18866</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19464</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23588</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33514</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38310</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46540</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42376</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46090</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-840C-4683-9AEE-BEA551F2B901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bandwidth Tests'!$A$3:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bandwidth Tests'!$F$3:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3624</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3780</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3948</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3780</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3948</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3582</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3938</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3948</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3760</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-840C-4683-9AEE-BEA551F2B901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bandwidth Tests'!$A$3:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bandwidth Tests'!$D$3:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2588</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3755</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4731</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5172</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5367</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5892</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5823</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6180</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-840C-4683-9AEE-BEA551F2B901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bandwidth Tests'!$A$3:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bandwidth Tests'!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2842</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3037</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3460</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3780</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4330</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4365</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4680</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4920</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5640</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5415</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5415</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5529</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5586</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5643</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5472</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5472</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5643</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5529</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5586</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5529</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5586</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5586</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5529</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5529</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5586</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5472</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5643</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5643</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5529</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5643</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5643</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5529</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5643</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5586</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5529</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5586</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-840C-4683-9AEE-BEA551F2B901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bandwidth Tests'!$A$3:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bandwidth Tests'!$B$3:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3920</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5488</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5432</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5488</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5432</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5432</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5488</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5488</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5488</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5432</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5488</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5432</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5432</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5432</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5432</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5320</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5488</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5432</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-840C-4683-9AEE-BEA551F2B901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1515085392"/>
+        <c:axId val="1515086832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1515085392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1515086832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1515086832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Bytes Read</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1515085392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
               <a:t>Frames per Second</a:t>
             </a:r>
           </a:p>
@@ -6922,7 +10639,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6957,13 +10674,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Bytes</a:t>
+              <a:t>Bytes Read per Second</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Read per Second</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7000,7 +10712,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7739,7 +11451,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D27-4B87-AE9D-9C2A8CA0C706}"/>
+              <c16:uniqueId val="{00000000-0175-4DFF-874F-9B809293FAEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8480,7 +12192,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2D27-4B87-AE9D-9C2A8CA0C706}"/>
+              <c16:uniqueId val="{00000001-0175-4DFF-874F-9B809293FAEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9221,7 +12933,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2D27-4B87-AE9D-9C2A8CA0C706}"/>
+              <c16:uniqueId val="{00000002-0175-4DFF-874F-9B809293FAEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9234,11 +12946,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1690259248"/>
-        <c:axId val="1814325392"/>
+        <c:axId val="1947785647"/>
+        <c:axId val="1947771727"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1690259248"/>
+        <c:axId val="1947785647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9336,7 +13048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814325392"/>
+        <c:crossAx val="1947771727"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9344,7 +13056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1814325392"/>
+        <c:axId val="1947771727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9450,7 +13162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1690259248"/>
+        <c:crossAx val="1947785647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9494,7 +13206,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9618,6 +13330,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11205,18 +14957,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -11238,6 +15506,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5121B0B6-5CD9-465B-9360-7D7AABF4675E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11286,23 +15592,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9068DFC-F4C4-2862-21A4-76016CA1B71D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CCC47C-E8AD-7C2E-4EC5-DA3CA1113A5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11622,12 +15928,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -11640,26 +15947,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -11867,7 +16174,7 @@
       <c r="E10">
         <v>11238</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>3540</v>
       </c>
     </row>
@@ -11887,7 +16194,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>3592</v>
       </c>
     </row>
@@ -11895,7 +16202,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>5600</v>
       </c>
       <c r="C12">
@@ -11984,7 +16291,7 @@
       <c r="D16">
         <v>4363</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>19464</v>
       </c>
       <c r="F16">
@@ -12041,7 +16348,7 @@
       <c r="C19">
         <v>4680</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>5172</v>
       </c>
       <c r="E19">
@@ -12078,7 +16385,7 @@
       <c r="B21">
         <v>5488</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>5160</v>
       </c>
       <c r="D21">
@@ -14404,8 +18711,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14416,8 +18723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2434C9-9FEE-4B74-A6E8-22FF2ED6C4F5}">
   <dimension ref="A1:T191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="X124" sqref="X124"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14442,21 +18749,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -14489,18 +18796,18 @@
       <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -21722,16 +26029,16 @@
         <f t="shared" si="11"/>
         <v>495</v>
       </c>
-      <c r="M119" s="1" t="s">
+      <c r="M119" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="R119" s="1" t="s">
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="R119" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
